--- a/Data/WindProduction.xlsx
+++ b/Data/WindProduction.xlsx
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s213518_dtu_dk/Documents/23 Spring/46755 Renewables in Electricity Markets/Assignment 2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_2A96071C709FA31C1226FFF8A738A5939BC0FE6A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{760D11C7-2B0D-4915-849B-AB6D8636508E}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_2A96071C709FA31C1226FFF8A738A5939BC0FE6A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4BBD796-1602-42B2-A82A-07E5AACA7B07}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Normalized" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Alkuaika UTC+02:00</t>
   </si>
@@ -39,13 +53,27 @@
   <si>
     <t>25-07-22</t>
   </si>
+  <si>
+    <t>14/3/2022</t>
+  </si>
+  <si>
+    <t>16/02/2022</t>
+  </si>
+  <si>
+    <t>21/09/2022</t>
+  </si>
+  <si>
+    <t>25/07/2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="168" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="172" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -61,7 +89,7 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -86,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -94,10 +122,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,17 +447,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.08984375" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="8.08984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -436,34 +469,34 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="4">
         <v>44571</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="5">
         <v>44747</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="5">
         <v>44777</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="5">
         <v>44816</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="5">
         <v>44873</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="5">
         <v>44901</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1383,4 +1416,1138 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC6EAA4-9164-47C2-A2DF-99C653857F1A}">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="10.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>44571</v>
+      </c>
+      <c r="C1" s="5">
+        <v>44747</v>
+      </c>
+      <c r="D1" s="5">
+        <v>44777</v>
+      </c>
+      <c r="E1" s="5">
+        <v>44816</v>
+      </c>
+      <c r="F1" s="5">
+        <v>44873</v>
+      </c>
+      <c r="G1" s="5">
+        <v>44901</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
+        <f>Data!C2/3247*150</f>
+        <v>5.0816137973514017</v>
+      </c>
+      <c r="C2" s="7">
+        <f>Data!D2/3247*150</f>
+        <v>146.39667385278719</v>
+      </c>
+      <c r="D2" s="7">
+        <f>Data!E2/3247*150</f>
+        <v>119.04835232522328</v>
+      </c>
+      <c r="E2" s="7">
+        <f>Data!F2/3247*150</f>
+        <v>51.231906375115486</v>
+      </c>
+      <c r="F2" s="7">
+        <f>Data!G2/3247*150</f>
+        <v>137.157376039421</v>
+      </c>
+      <c r="G2" s="7">
+        <f>Data!H2/3247*150</f>
+        <v>114.52109639667385</v>
+      </c>
+      <c r="H2" s="7">
+        <f>Data!I2/3247*150</f>
+        <v>66.199568832768705</v>
+      </c>
+      <c r="I2" s="7">
+        <f>Data!J2/3247*150</f>
+        <v>103.3877425315676</v>
+      </c>
+      <c r="J2" s="7">
+        <f>Data!K2/3247*150</f>
+        <v>12.334462580843855</v>
+      </c>
+      <c r="K2" s="7">
+        <f>Data!L2/3247*150</f>
+        <v>12.935016938712659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="B3" s="7">
+        <f>Data!C3/3247*150</f>
+        <v>5.4973821989528791</v>
+      </c>
+      <c r="C3" s="7">
+        <f>Data!D3/3247*150</f>
+        <v>145.70372651678471</v>
+      </c>
+      <c r="D3" s="7">
+        <f>Data!E3/3247*150</f>
+        <v>120.34185401909455</v>
+      </c>
+      <c r="E3" s="7">
+        <f>Data!F3/3247*150</f>
+        <v>48.044348629504157</v>
+      </c>
+      <c r="F3" s="7">
+        <f>Data!G3/3247*150</f>
+        <v>138.63566368955961</v>
+      </c>
+      <c r="G3" s="7">
+        <f>Data!H3/3247*150</f>
+        <v>117.70865414228518</v>
+      </c>
+      <c r="H3" s="7">
+        <f>Data!I3/3247*150</f>
+        <v>63.797351401293504</v>
+      </c>
+      <c r="I3" s="7">
+        <f>Data!J3/3247*150</f>
+        <v>98.213735756082542</v>
+      </c>
+      <c r="J3" s="7">
+        <f>Data!K3/3247*150</f>
+        <v>7.5300277178934403</v>
+      </c>
+      <c r="K3" s="7">
+        <f>Data!L3/3247*150</f>
+        <v>12.704034493378503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B4" s="7">
+        <f>Data!C4/3247*150</f>
+        <v>4.8968278410840771</v>
+      </c>
+      <c r="C4" s="7">
+        <f>Data!D4/3247*150</f>
+        <v>140.94548814290113</v>
+      </c>
+      <c r="D4" s="7">
+        <f>Data!E4/3247*150</f>
+        <v>126.11641515244841</v>
+      </c>
+      <c r="E4" s="7">
+        <f>Data!F4/3247*150</f>
+        <v>50.261780104712045</v>
+      </c>
+      <c r="F4" s="7">
+        <f>Data!G4/3247*150</f>
+        <v>137.06498306128734</v>
+      </c>
+      <c r="G4" s="7">
+        <f>Data!H4/3247*150</f>
+        <v>114.752078842008</v>
+      </c>
+      <c r="H4" s="7">
+        <f>Data!I4/3247*150</f>
+        <v>58.438558669541116</v>
+      </c>
+      <c r="I4" s="7">
+        <f>Data!J4/3247*150</f>
+        <v>95.395749923005852</v>
+      </c>
+      <c r="J4" s="7">
+        <f>Data!K4/3247*150</f>
+        <v>6.0517400677548503</v>
+      </c>
+      <c r="K4" s="7">
+        <f>Data!L4/3247*150</f>
+        <v>13.812750230982445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>0.125</v>
+      </c>
+      <c r="B5" s="7">
+        <f>Data!C5/3247*150</f>
+        <v>3.9267015706806281</v>
+      </c>
+      <c r="C5" s="7">
+        <f>Data!D5/3247*150</f>
+        <v>138.82044964582693</v>
+      </c>
+      <c r="D5" s="7">
+        <f>Data!E5/3247*150</f>
+        <v>135.26331998768092</v>
+      </c>
+      <c r="E5" s="7">
+        <f>Data!F5/3247*150</f>
+        <v>51.370495842315982</v>
+      </c>
+      <c r="F5" s="7">
+        <f>Data!G5/3247*150</f>
+        <v>136.2796427471512</v>
+      </c>
+      <c r="G5" s="7">
+        <f>Data!H5/3247*150</f>
+        <v>108.37696335078533</v>
+      </c>
+      <c r="H5" s="7">
+        <f>Data!I5/3247*150</f>
+        <v>53.264551894056055</v>
+      </c>
+      <c r="I5" s="7">
+        <f>Data!J5/3247*150</f>
+        <v>94.471820141669241</v>
+      </c>
+      <c r="J5" s="7">
+        <f>Data!K5/3247*150</f>
+        <v>5.3587927317523869</v>
+      </c>
+      <c r="K5" s="7">
+        <f>Data!L5/3247*150</f>
+        <v>18.663381582999691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B6" s="7">
+        <f>Data!C6/3247*150</f>
+        <v>4.6196489066830919</v>
+      </c>
+      <c r="C6" s="7">
+        <f>Data!D6/3247*150</f>
+        <v>131.84477979673545</v>
+      </c>
+      <c r="D6" s="7">
+        <f>Data!E6/3247*150</f>
+        <v>137.157376039421</v>
+      </c>
+      <c r="E6" s="7">
+        <f>Data!F6/3247*150</f>
+        <v>47.81336618417</v>
+      </c>
+      <c r="F6" s="7">
+        <f>Data!G6/3247*150</f>
+        <v>137.61934093008932</v>
+      </c>
+      <c r="G6" s="7">
+        <f>Data!H6/3247*150</f>
+        <v>99.322451493686486</v>
+      </c>
+      <c r="H6" s="7">
+        <f>Data!I6/3247*150</f>
+        <v>48.783492454573455</v>
+      </c>
+      <c r="I6" s="7">
+        <f>Data!J6/3247*150</f>
+        <v>89.020634431783179</v>
+      </c>
+      <c r="J6" s="7">
+        <f>Data!K6/3247*150</f>
+        <v>4.4810594394825989</v>
+      </c>
+      <c r="K6" s="7">
+        <f>Data!L6/3247*150</f>
+        <v>24.99230058515553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B7" s="7">
+        <f>Data!C7/3247*150</f>
+        <v>6.4675084693563294</v>
+      </c>
+      <c r="C7" s="7">
+        <f>Data!D7/3247*150</f>
+        <v>116.64613489374807</v>
+      </c>
+      <c r="D7" s="7">
+        <f>Data!E7/3247*150</f>
+        <v>137.01878657222051</v>
+      </c>
+      <c r="E7" s="7">
+        <f>Data!F7/3247*150</f>
+        <v>42.870341854019095</v>
+      </c>
+      <c r="F7" s="7">
+        <f>Data!G7/3247*150</f>
+        <v>131.38281490606715</v>
+      </c>
+      <c r="G7" s="7">
+        <f>Data!H7/3247*150</f>
+        <v>87.588543270711426</v>
+      </c>
+      <c r="H7" s="7">
+        <f>Data!I7/3247*150</f>
+        <v>44.487218971358182</v>
+      </c>
+      <c r="I7" s="7">
+        <f>Data!J7/3247*150</f>
+        <v>83.800431167231295</v>
+      </c>
+      <c r="J7" s="7">
+        <f>Data!K7/3247*150</f>
+        <v>3.0027717893440098</v>
+      </c>
+      <c r="K7" s="7">
+        <f>Data!L7/3247*150</f>
+        <v>27.302125038497074</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="B8" s="7">
+        <f>Data!C8/3247*150</f>
+        <v>10.532799507237451</v>
+      </c>
+      <c r="C8" s="7">
+        <f>Data!D8/3247*150</f>
+        <v>90.822297505389599</v>
+      </c>
+      <c r="D8" s="7">
+        <f>Data!E8/3247*150</f>
+        <v>136.46442870341852</v>
+      </c>
+      <c r="E8" s="7">
+        <f>Data!F8/3247*150</f>
+        <v>38.343085925469666</v>
+      </c>
+      <c r="F8" s="7">
+        <f>Data!G8/3247*150</f>
+        <v>120.11087157376039</v>
+      </c>
+      <c r="G8" s="7">
+        <f>Data!H8/3247*150</f>
+        <v>75.485063135201727</v>
+      </c>
+      <c r="H8" s="7">
+        <f>Data!I8/3247*150</f>
+        <v>39.267015706806284</v>
+      </c>
+      <c r="I8" s="7">
+        <f>Data!J8/3247*150</f>
+        <v>79.827533107483845</v>
+      </c>
+      <c r="J8" s="7">
+        <f>Data!K8/3247*150</f>
+        <v>3.0489682784108409</v>
+      </c>
+      <c r="K8" s="7">
+        <f>Data!L8/3247*150</f>
+        <v>29.288574068370803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B9" s="7">
+        <f>Data!C9/3247*150</f>
+        <v>18.570988604866031</v>
+      </c>
+      <c r="C9" s="7">
+        <f>Data!D9/3247*150</f>
+        <v>66.98490914690484</v>
+      </c>
+      <c r="D9" s="7">
+        <f>Data!E9/3247*150</f>
+        <v>132.0757622420696</v>
+      </c>
+      <c r="E9" s="7">
+        <f>Data!F9/3247*150</f>
+        <v>36.356636895595933</v>
+      </c>
+      <c r="F9" s="7">
+        <f>Data!G9/3247*150</f>
+        <v>103.89590391130274</v>
+      </c>
+      <c r="G9" s="7">
+        <f>Data!H9/3247*150</f>
+        <v>64.675084693563292</v>
+      </c>
+      <c r="H9" s="7">
+        <f>Data!I9/3247*150</f>
+        <v>38.527871881736992</v>
+      </c>
+      <c r="I9" s="7">
+        <f>Data!J9/3247*150</f>
+        <v>68.509393286110253</v>
+      </c>
+      <c r="J9" s="7">
+        <f>Data!K9/3247*150</f>
+        <v>3.4647366800123192</v>
+      </c>
+      <c r="K9" s="7">
+        <f>Data!L9/3247*150</f>
+        <v>21.850939328611027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B10" s="7">
+        <f>Data!C10/3247*150</f>
+        <v>26.10101632275947</v>
+      </c>
+      <c r="C10" s="7">
+        <f>Data!D10/3247*150</f>
+        <v>63.704958423159837</v>
+      </c>
+      <c r="D10" s="7">
+        <f>Data!E10/3247*150</f>
+        <v>125.56205728364645</v>
+      </c>
+      <c r="E10" s="7">
+        <f>Data!F10/3247*150</f>
+        <v>30.905451185709886</v>
+      </c>
+      <c r="F10" s="7">
+        <f>Data!G10/3247*150</f>
+        <v>87.496150292577767</v>
+      </c>
+      <c r="G10" s="7">
+        <f>Data!H10/3247*150</f>
+        <v>52.525408068986756</v>
+      </c>
+      <c r="H10" s="7">
+        <f>Data!I10/3247*150</f>
+        <v>35.848475515860791</v>
+      </c>
+      <c r="I10" s="7">
+        <f>Data!J10/3247*150</f>
+        <v>61.810902371419772</v>
+      </c>
+      <c r="J10" s="7">
+        <f>Data!K10/3247*150</f>
+        <v>3.7881121034801355</v>
+      </c>
+      <c r="K10" s="7">
+        <f>Data!L10/3247*150</f>
+        <v>13.858946720049277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="B11" s="7">
+        <f>Data!C11/3247*150</f>
+        <v>25.962426855558977</v>
+      </c>
+      <c r="C11" s="7">
+        <f>Data!D11/3247*150</f>
+        <v>68.417000307976593</v>
+      </c>
+      <c r="D11" s="7">
+        <f>Data!E11/3247*150</f>
+        <v>119.55651370495842</v>
+      </c>
+      <c r="E11" s="7">
+        <f>Data!F11/3247*150</f>
+        <v>28.780412688635664</v>
+      </c>
+      <c r="F11" s="7">
+        <f>Data!G11/3247*150</f>
+        <v>79.596550662149681</v>
+      </c>
+      <c r="G11" s="7">
+        <f>Data!H11/3247*150</f>
+        <v>56.914074530335697</v>
+      </c>
+      <c r="H11" s="7">
+        <f>Data!I11/3247*150</f>
+        <v>33.49245457345242</v>
+      </c>
+      <c r="I11" s="7">
+        <f>Data!J11/3247*150</f>
+        <v>56.544502617801051</v>
+      </c>
+      <c r="J11" s="7">
+        <f>Data!K11/3247*150</f>
+        <v>3.7419156144133043</v>
+      </c>
+      <c r="K11" s="7">
+        <f>Data!L11/3247*150</f>
+        <v>19.910686787804128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B12" s="7">
+        <f>Data!C12/3247*150</f>
+        <v>18.709578072066524</v>
+      </c>
+      <c r="C12" s="7">
+        <f>Data!D12/3247*150</f>
+        <v>56.544502617801051</v>
+      </c>
+      <c r="D12" s="7">
+        <f>Data!E12/3247*150</f>
+        <v>115.21404373267633</v>
+      </c>
+      <c r="E12" s="7">
+        <f>Data!F12/3247*150</f>
+        <v>32.01416692331383</v>
+      </c>
+      <c r="F12" s="7">
+        <f>Data!G12/3247*150</f>
+        <v>76.732368340006147</v>
+      </c>
+      <c r="G12" s="7">
+        <f>Data!H12/3247*150</f>
+        <v>64.21311980289498</v>
+      </c>
+      <c r="H12" s="7">
+        <f>Data!I12/3247*150</f>
+        <v>28.179858330766862</v>
+      </c>
+      <c r="I12" s="7">
+        <f>Data!J12/3247*150</f>
+        <v>57.098860486603016</v>
+      </c>
+      <c r="J12" s="7">
+        <f>Data!K12/3247*150</f>
+        <v>2.8641823221435172</v>
+      </c>
+      <c r="K12" s="7">
+        <f>Data!L12/3247*150</f>
+        <v>31.967970434246997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B13" s="7">
+        <f>Data!C13/3247*150</f>
+        <v>16.122574684323993</v>
+      </c>
+      <c r="C13" s="7">
+        <f>Data!D13/3247*150</f>
+        <v>51.555281798583309</v>
+      </c>
+      <c r="D13" s="7">
+        <f>Data!E13/3247*150</f>
+        <v>114.56729288574068</v>
+      </c>
+      <c r="E13" s="7">
+        <f>Data!F13/3247*150</f>
+        <v>39.267015706806284</v>
+      </c>
+      <c r="F13" s="7">
+        <f>Data!G13/3247*150</f>
+        <v>78.349245457345233</v>
+      </c>
+      <c r="G13" s="7">
+        <f>Data!H13/3247*150</f>
+        <v>67.03110563597167</v>
+      </c>
+      <c r="H13" s="7">
+        <f>Data!I13/3247*150</f>
+        <v>21.019402525408069</v>
+      </c>
+      <c r="I13" s="7">
+        <f>Data!J13/3247*150</f>
+        <v>55.38959039113027</v>
+      </c>
+      <c r="J13" s="7">
+        <f>Data!K13/3247*150</f>
+        <v>4.01909454881429</v>
+      </c>
+      <c r="K13" s="7">
+        <f>Data!L13/3247*150</f>
+        <v>43.424699722821067</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="B14" s="7">
+        <f>Data!C14/3247*150</f>
+        <v>17.831844779796736</v>
+      </c>
+      <c r="C14" s="7">
+        <f>Data!D14/3247*150</f>
+        <v>47.767169695103178</v>
+      </c>
+      <c r="D14" s="7">
+        <f>Data!E14/3247*150</f>
+        <v>114.89066830920849</v>
+      </c>
+      <c r="E14" s="7">
+        <f>Data!F14/3247*150</f>
+        <v>40.976285802279023</v>
+      </c>
+      <c r="F14" s="7">
+        <f>Data!G14/3247*150</f>
+        <v>88.420080073914392</v>
+      </c>
+      <c r="G14" s="7">
+        <f>Data!H14/3247*150</f>
+        <v>71.604558053587922</v>
+      </c>
+      <c r="H14" s="7">
+        <f>Data!I14/3247*150</f>
+        <v>18.801971050200184</v>
+      </c>
+      <c r="I14" s="7">
+        <f>Data!J14/3247*150</f>
+        <v>54.049892208192176</v>
+      </c>
+      <c r="J14" s="7">
+        <f>Data!K14/3247*150</f>
+        <v>5.9593470896211889</v>
+      </c>
+      <c r="K14" s="7">
+        <f>Data!L14/3247*150</f>
+        <v>50.862334462580847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B15" s="7">
+        <f>Data!C15/3247*150</f>
+        <v>18.432399137665538</v>
+      </c>
+      <c r="C15" s="7">
+        <f>Data!D15/3247*150</f>
+        <v>50.81613797351401</v>
+      </c>
+      <c r="D15" s="7">
+        <f>Data!E15/3247*150</f>
+        <v>117.01570680628272</v>
+      </c>
+      <c r="E15" s="7">
+        <f>Data!F15/3247*150</f>
+        <v>38.712657838004311</v>
+      </c>
+      <c r="F15" s="7">
+        <f>Data!G15/3247*150</f>
+        <v>104.40406529103788</v>
+      </c>
+      <c r="G15" s="7">
+        <f>Data!H15/3247*150</f>
+        <v>71.142593162919624</v>
+      </c>
+      <c r="H15" s="7">
+        <f>Data!I15/3247*150</f>
+        <v>18.801971050200184</v>
+      </c>
+      <c r="I15" s="7">
+        <f>Data!J15/3247*150</f>
+        <v>54.742839544194645</v>
+      </c>
+      <c r="J15" s="7">
+        <f>Data!K15/3247*150</f>
+        <v>7.8534031413612562</v>
+      </c>
+      <c r="K15" s="7">
+        <f>Data!L15/3247*150</f>
+        <v>52.017246689251614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B16" s="7">
+        <f>Data!C16/3247*150</f>
+        <v>18.940560517400677</v>
+      </c>
+      <c r="C16" s="7">
+        <f>Data!D16/3247*150</f>
+        <v>65.321835540498924</v>
+      </c>
+      <c r="D16" s="7">
+        <f>Data!E16/3247*150</f>
+        <v>117.38527871881737</v>
+      </c>
+      <c r="E16" s="7">
+        <f>Data!F16/3247*150</f>
+        <v>38.481675392670155</v>
+      </c>
+      <c r="F16" s="7">
+        <f>Data!G16/3247*150</f>
+        <v>112.71943332306745</v>
+      </c>
+      <c r="G16" s="7">
+        <f>Data!H16/3247*150</f>
+        <v>70.773021250384971</v>
+      </c>
+      <c r="H16" s="7">
+        <f>Data!I16/3247*150</f>
+        <v>19.633507853403142</v>
+      </c>
+      <c r="I16" s="7">
+        <f>Data!J16/3247*150</f>
+        <v>63.797351401293504</v>
+      </c>
+      <c r="J16" s="7">
+        <f>Data!K16/3247*150</f>
+        <v>10.440406529103788</v>
+      </c>
+      <c r="K16" s="7">
+        <f>Data!L16/3247*150</f>
+        <v>52.941176470588239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="B17" s="7">
+        <f>Data!C17/3247*150</f>
+        <v>19.07914998460117</v>
+      </c>
+      <c r="C17" s="7">
+        <f>Data!D17/3247*150</f>
+        <v>73.267631659993839</v>
+      </c>
+      <c r="D17" s="7">
+        <f>Data!E17/3247*150</f>
+        <v>120.29565753002771</v>
+      </c>
+      <c r="E17" s="7">
+        <f>Data!F17/3247*150</f>
+        <v>46.427471512165077</v>
+      </c>
+      <c r="F17" s="7">
+        <f>Data!G17/3247*150</f>
+        <v>116.87711733908223</v>
+      </c>
+      <c r="G17" s="7">
+        <f>Data!H17/3247*150</f>
+        <v>68.647982753310757</v>
+      </c>
+      <c r="H17" s="7">
+        <f>Data!I17/3247*150</f>
+        <v>21.435170927009548</v>
+      </c>
+      <c r="I17" s="7">
+        <f>Data!J17/3247*150</f>
+        <v>69.710502001847857</v>
+      </c>
+      <c r="J17" s="7">
+        <f>Data!K17/3247*150</f>
+        <v>15.244841392054203</v>
+      </c>
+      <c r="K17" s="7">
+        <f>Data!L17/3247*150</f>
+        <v>51.555281798583309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B18" s="7">
+        <f>Data!C18/3247*150</f>
+        <v>21.481367416076377</v>
+      </c>
+      <c r="C18" s="7">
+        <f>Data!D18/3247*150</f>
+        <v>80.936248845087775</v>
+      </c>
+      <c r="D18" s="7">
+        <f>Data!E18/3247*150</f>
+        <v>119.46412072682476</v>
+      </c>
+      <c r="E18" s="7">
+        <f>Data!F18/3247*150</f>
+        <v>51.000923929781337</v>
+      </c>
+      <c r="F18" s="7">
+        <f>Data!G18/3247*150</f>
+        <v>114.98306128734217</v>
+      </c>
+      <c r="G18" s="7">
+        <f>Data!H18/3247*150</f>
+        <v>59.131506005543578</v>
+      </c>
+      <c r="H18" s="7">
+        <f>Data!I18/3247*150</f>
+        <v>23.744995380351096</v>
+      </c>
+      <c r="I18" s="7">
+        <f>Data!J18/3247*150</f>
+        <v>77.656298121342772</v>
+      </c>
+      <c r="J18" s="7">
+        <f>Data!K18/3247*150</f>
+        <v>19.171542962734833</v>
+      </c>
+      <c r="K18" s="7">
+        <f>Data!L18/3247*150</f>
+        <v>50.954727440714507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B19" s="7">
+        <f>Data!C19/3247*150</f>
+        <v>32.06036341238066</v>
+      </c>
+      <c r="C19" s="7">
+        <f>Data!D19/3247*150</f>
+        <v>87.911918694179249</v>
+      </c>
+      <c r="D19" s="7">
+        <f>Data!E19/3247*150</f>
+        <v>119.46412072682476</v>
+      </c>
+      <c r="E19" s="7">
+        <f>Data!F19/3247*150</f>
+        <v>48.783492454573455</v>
+      </c>
+      <c r="F19" s="7">
+        <f>Data!G19/3247*150</f>
+        <v>104.54265475823837</v>
+      </c>
+      <c r="G19" s="7">
+        <f>Data!H19/3247*150</f>
+        <v>53.403141361256544</v>
+      </c>
+      <c r="H19" s="7">
+        <f>Data!I19/3247*150</f>
+        <v>35.617493070526642</v>
+      </c>
+      <c r="I19" s="7">
+        <f>Data!J19/3247*150</f>
+        <v>82.922697874961514</v>
+      </c>
+      <c r="J19" s="7">
+        <f>Data!K19/3247*150</f>
+        <v>23.698798891284262</v>
+      </c>
+      <c r="K19" s="7">
+        <f>Data!L19/3247*150</f>
+        <v>51.139513396981826</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="B20" s="7">
+        <f>Data!C20/3247*150</f>
+        <v>53.172158915922388</v>
+      </c>
+      <c r="C20" s="7">
+        <f>Data!D20/3247*150</f>
+        <v>94.79519556513705</v>
+      </c>
+      <c r="D20" s="7">
+        <f>Data!E20/3247*150</f>
+        <v>119.74129966122574</v>
+      </c>
+      <c r="E20" s="7">
+        <f>Data!F20/3247*150</f>
+        <v>46.242685555897751</v>
+      </c>
+      <c r="F20" s="7">
+        <f>Data!G20/3247*150</f>
+        <v>91.330458885124727</v>
+      </c>
+      <c r="G20" s="7">
+        <f>Data!H20/3247*150</f>
+        <v>45.4111487526948</v>
+      </c>
+      <c r="H20" s="7">
+        <f>Data!I20/3247*150</f>
+        <v>52.479211579919927</v>
+      </c>
+      <c r="I20" s="7">
+        <f>Data!J20/3247*150</f>
+        <v>87.357560825377277</v>
+      </c>
+      <c r="J20" s="7">
+        <f>Data!K20/3247*150</f>
+        <v>34.554973821989527</v>
+      </c>
+      <c r="K20" s="7">
+        <f>Data!L20/3247*150</f>
+        <v>49.707422235910073</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B21" s="7">
+        <f>Data!C21/3247*150</f>
+        <v>72.713273791191867</v>
+      </c>
+      <c r="C21" s="7">
+        <f>Data!D21/3247*150</f>
+        <v>99.368647982753302</v>
+      </c>
+      <c r="D21" s="7">
+        <f>Data!E21/3247*150</f>
+        <v>119.41792423775793</v>
+      </c>
+      <c r="E21" s="7">
+        <f>Data!F21/3247*150</f>
+        <v>43.794271635355713</v>
+      </c>
+      <c r="F21" s="7">
+        <f>Data!G21/3247*150</f>
+        <v>84.862950415768395</v>
+      </c>
+      <c r="G21" s="7">
+        <f>Data!H21/3247*150</f>
+        <v>39.220819217739454</v>
+      </c>
+      <c r="H21" s="7">
+        <f>Data!I21/3247*150</f>
+        <v>72.94425623652603</v>
+      </c>
+      <c r="I21" s="7">
+        <f>Data!J21/3247*150</f>
+        <v>83.892824145364955</v>
+      </c>
+      <c r="J21" s="7">
+        <f>Data!K21/3247*150</f>
+        <v>52.848783492454579</v>
+      </c>
+      <c r="K21" s="7">
+        <f>Data!L21/3247*150</f>
+        <v>48.321527563905143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B22" s="7">
+        <f>Data!C22/3247*150</f>
+        <v>76.270403449337849</v>
+      </c>
+      <c r="C22" s="7">
+        <f>Data!D22/3247*150</f>
+        <v>111.98028949799814</v>
+      </c>
+      <c r="D22" s="7">
+        <f>Data!E22/3247*150</f>
+        <v>121.03480135509702</v>
+      </c>
+      <c r="E22" s="7">
+        <f>Data!F22/3247*150</f>
+        <v>40.421927933477058</v>
+      </c>
+      <c r="F22" s="7">
+        <f>Data!G22/3247*150</f>
+        <v>88.7434554973822</v>
+      </c>
+      <c r="G22" s="7">
+        <f>Data!H22/3247*150</f>
+        <v>35.617493070526642</v>
+      </c>
+      <c r="H22" s="7">
+        <f>Data!I22/3247*150</f>
+        <v>88.92824145364952</v>
+      </c>
+      <c r="I22" s="7">
+        <f>Data!J22/3247*150</f>
+        <v>87.034185401909454</v>
+      </c>
+      <c r="J22" s="7">
+        <f>Data!K22/3247*150</f>
+        <v>72.251308900523568</v>
+      </c>
+      <c r="K22" s="7">
+        <f>Data!L22/3247*150</f>
+        <v>50.261780104712045</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="B23" s="7">
+        <f>Data!C23/3247*150</f>
+        <v>76.224206960271019</v>
+      </c>
+      <c r="C23" s="7">
+        <f>Data!D23/3247*150</f>
+        <v>123.29842931937173</v>
+      </c>
+      <c r="D23" s="7">
+        <f>Data!E23/3247*150</f>
+        <v>120.34185401909455</v>
+      </c>
+      <c r="E23" s="7">
+        <f>Data!F23/3247*150</f>
+        <v>38.805050816137971</v>
+      </c>
+      <c r="F23" s="7">
+        <f>Data!G23/3247*150</f>
+        <v>100.61595318755775</v>
+      </c>
+      <c r="G23" s="7">
+        <f>Data!H23/3247*150</f>
+        <v>35.1093316907915</v>
+      </c>
+      <c r="H23" s="7">
+        <f>Data!I23/3247*150</f>
+        <v>94.979981521404383</v>
+      </c>
+      <c r="I23" s="7">
+        <f>Data!J23/3247*150</f>
+        <v>85.602094240837701</v>
+      </c>
+      <c r="J23" s="7">
+        <f>Data!K23/3247*150</f>
+        <v>84.400985525100097</v>
+      </c>
+      <c r="K23" s="7">
+        <f>Data!L23/3247*150</f>
+        <v>58.946720049276252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B24" s="7">
+        <f>Data!C24/3247*150</f>
+        <v>75.623652602402217</v>
+      </c>
+      <c r="C24" s="7">
+        <f>Data!D24/3247*150</f>
+        <v>125.46966430551278</v>
+      </c>
+      <c r="D24" s="7">
+        <f>Data!E24/3247*150</f>
+        <v>115.95318755774561</v>
+      </c>
+      <c r="E24" s="7">
+        <f>Data!F24/3247*150</f>
+        <v>33.58484755158608</v>
+      </c>
+      <c r="F24" s="7">
+        <f>Data!G24/3247*150</f>
+        <v>107.22205112411457</v>
+      </c>
+      <c r="G24" s="7">
+        <f>Data!H24/3247*150</f>
+        <v>39.036033261472127</v>
+      </c>
+      <c r="H24" s="7">
+        <f>Data!I24/3247*150</f>
+        <v>95.672928857406845</v>
+      </c>
+      <c r="I24" s="7">
+        <f>Data!J24/3247*150</f>
+        <v>84.631967970434246</v>
+      </c>
+      <c r="J24" s="7">
+        <f>Data!K24/3247*150</f>
+        <v>92.023406221127203</v>
+      </c>
+      <c r="K24" s="7">
+        <f>Data!L24/3247*150</f>
+        <v>73.683400061595322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B25" s="7">
+        <f>Data!C25/3247*150</f>
+        <v>73.267631659993839</v>
+      </c>
+      <c r="C25" s="7">
+        <f>Data!D25/3247*150</f>
+        <v>125.10009239297813</v>
+      </c>
+      <c r="D25" s="7">
+        <f>Data!E25/3247*150</f>
+        <v>112.81182630120111</v>
+      </c>
+      <c r="E25" s="7">
+        <f>Data!F25/3247*150</f>
+        <v>33.307668617185094</v>
+      </c>
+      <c r="F25" s="7">
+        <f>Data!G25/3247*150</f>
+        <v>103.98829688943641</v>
+      </c>
+      <c r="G25" s="7">
+        <f>Data!H25/3247*150</f>
+        <v>51.278102864182323</v>
+      </c>
+      <c r="H25" s="7">
+        <f>Data!I25/3247*150</f>
+        <v>93.270711425931637</v>
+      </c>
+      <c r="I25" s="7">
+        <f>Data!J25/3247*150</f>
+        <v>79.91992608561749</v>
+      </c>
+      <c r="J25" s="7">
+        <f>Data!K25/3247*150</f>
+        <v>95.857714813674164</v>
+      </c>
+      <c r="K25" s="7">
+        <f>Data!L25/3247*150</f>
+        <v>80.243301509085313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/WindProduction.xlsx
+++ b/Data/WindProduction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s213518_dtu_dk/Documents/23 Spring/46755 Renewables in Electricity Markets/Assignment 2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="11_2A96071C709FA31C1226FFF8A738A5939BC0FE6A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4BBD796-1602-42B2-A82A-07E5AACA7B07}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="11_2A96071C709FA31C1226FFF8A738A5939BC0FE6A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F7F6923-06D7-4063-A184-052204527650}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,8 +72,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="168" formatCode="h:mm:ss;@"/>
-    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -114,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -126,11 +126,10 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +447,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -472,31 +471,31 @@
       <c r="C1" s="4">
         <v>44571</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="3">
         <v>44747</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="3">
         <v>44777</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="3">
         <v>44816</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="3">
         <v>44873</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="3">
         <v>44901</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1422,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC6EAA4-9164-47C2-A2DF-99C653857F1A}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1439,19 +1438,19 @@
       <c r="B1" s="4">
         <v>44571</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="3">
         <v>44747</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="3">
         <v>44777</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="3">
         <v>44816</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="3">
         <v>44873</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="3">
         <v>44901</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -1468,1083 +1467,1083 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
-        <f>Data!C2/3247*150</f>
-        <v>5.0816137973514017</v>
-      </c>
-      <c r="C2" s="7">
-        <f>Data!D2/3247*150</f>
-        <v>146.39667385278719</v>
-      </c>
-      <c r="D2" s="7">
-        <f>Data!E2/3247*150</f>
-        <v>119.04835232522328</v>
-      </c>
-      <c r="E2" s="7">
-        <f>Data!F2/3247*150</f>
-        <v>51.231906375115486</v>
-      </c>
-      <c r="F2" s="7">
-        <f>Data!G2/3247*150</f>
-        <v>137.157376039421</v>
-      </c>
-      <c r="G2" s="7">
-        <f>Data!H2/3247*150</f>
-        <v>114.52109639667385</v>
-      </c>
-      <c r="H2" s="7">
-        <f>Data!I2/3247*150</f>
-        <v>66.199568832768705</v>
-      </c>
-      <c r="I2" s="7">
-        <f>Data!J2/3247*150</f>
-        <v>103.3877425315676</v>
-      </c>
-      <c r="J2" s="7">
-        <f>Data!K2/3247*150</f>
-        <v>12.334462580843855</v>
-      </c>
-      <c r="K2" s="7">
-        <f>Data!L2/3247*150</f>
-        <v>12.935016938712659</v>
+      <c r="B2" s="6">
+        <f>Data!C2/200*150</f>
+        <v>82.5</v>
+      </c>
+      <c r="C2" s="6">
+        <f>Data!D2/200*150</f>
+        <v>2376.75</v>
+      </c>
+      <c r="D2" s="6">
+        <f>Data!E2/200*150</f>
+        <v>1932.75</v>
+      </c>
+      <c r="E2" s="6">
+        <f>Data!F2/200*150</f>
+        <v>831.75</v>
+      </c>
+      <c r="F2" s="6">
+        <f>Data!G2/200*150</f>
+        <v>2226.75</v>
+      </c>
+      <c r="G2" s="6">
+        <f>Data!H2/200*150</f>
+        <v>1859.25</v>
+      </c>
+      <c r="H2" s="6">
+        <f>Data!I2/200*150</f>
+        <v>1074.75</v>
+      </c>
+      <c r="I2" s="6">
+        <f>Data!J2/200*150</f>
+        <v>1678.5</v>
+      </c>
+      <c r="J2" s="6">
+        <f>Data!K2/200*150</f>
+        <v>200.25</v>
+      </c>
+      <c r="K2" s="6">
+        <f>Data!L2/200*150</f>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="B3" s="7">
-        <f>Data!C3/3247*150</f>
-        <v>5.4973821989528791</v>
-      </c>
-      <c r="C3" s="7">
-        <f>Data!D3/3247*150</f>
-        <v>145.70372651678471</v>
-      </c>
-      <c r="D3" s="7">
-        <f>Data!E3/3247*150</f>
-        <v>120.34185401909455</v>
-      </c>
-      <c r="E3" s="7">
-        <f>Data!F3/3247*150</f>
-        <v>48.044348629504157</v>
-      </c>
-      <c r="F3" s="7">
-        <f>Data!G3/3247*150</f>
-        <v>138.63566368955961</v>
-      </c>
-      <c r="G3" s="7">
-        <f>Data!H3/3247*150</f>
-        <v>117.70865414228518</v>
-      </c>
-      <c r="H3" s="7">
-        <f>Data!I3/3247*150</f>
-        <v>63.797351401293504</v>
-      </c>
-      <c r="I3" s="7">
-        <f>Data!J3/3247*150</f>
-        <v>98.213735756082542</v>
-      </c>
-      <c r="J3" s="7">
-        <f>Data!K3/3247*150</f>
-        <v>7.5300277178934403</v>
-      </c>
-      <c r="K3" s="7">
-        <f>Data!L3/3247*150</f>
-        <v>12.704034493378503</v>
+      <c r="B3" s="6">
+        <f>Data!C3/200*150</f>
+        <v>89.25</v>
+      </c>
+      <c r="C3" s="6">
+        <f>Data!D3/200*150</f>
+        <v>2365.5</v>
+      </c>
+      <c r="D3" s="6">
+        <f>Data!E3/200*150</f>
+        <v>1953.75</v>
+      </c>
+      <c r="E3" s="6">
+        <f>Data!F3/200*150</f>
+        <v>780</v>
+      </c>
+      <c r="F3" s="6">
+        <f>Data!G3/200*150</f>
+        <v>2250.75</v>
+      </c>
+      <c r="G3" s="6">
+        <f>Data!H3/200*150</f>
+        <v>1911</v>
+      </c>
+      <c r="H3" s="6">
+        <f>Data!I3/200*150</f>
+        <v>1035.75</v>
+      </c>
+      <c r="I3" s="6">
+        <f>Data!J3/200*150</f>
+        <v>1594.5000000000002</v>
+      </c>
+      <c r="J3" s="6">
+        <f>Data!K3/200*150</f>
+        <v>122.24999999999999</v>
+      </c>
+      <c r="K3" s="6">
+        <f>Data!L3/200*150</f>
+        <v>206.25</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="B4" s="7">
-        <f>Data!C4/3247*150</f>
-        <v>4.8968278410840771</v>
-      </c>
-      <c r="C4" s="7">
-        <f>Data!D4/3247*150</f>
-        <v>140.94548814290113</v>
-      </c>
-      <c r="D4" s="7">
-        <f>Data!E4/3247*150</f>
-        <v>126.11641515244841</v>
-      </c>
-      <c r="E4" s="7">
-        <f>Data!F4/3247*150</f>
-        <v>50.261780104712045</v>
-      </c>
-      <c r="F4" s="7">
-        <f>Data!G4/3247*150</f>
-        <v>137.06498306128734</v>
-      </c>
-      <c r="G4" s="7">
-        <f>Data!H4/3247*150</f>
-        <v>114.752078842008</v>
-      </c>
-      <c r="H4" s="7">
-        <f>Data!I4/3247*150</f>
-        <v>58.438558669541116</v>
-      </c>
-      <c r="I4" s="7">
-        <f>Data!J4/3247*150</f>
-        <v>95.395749923005852</v>
-      </c>
-      <c r="J4" s="7">
-        <f>Data!K4/3247*150</f>
-        <v>6.0517400677548503</v>
-      </c>
-      <c r="K4" s="7">
-        <f>Data!L4/3247*150</f>
-        <v>13.812750230982445</v>
+      <c r="B4" s="6">
+        <f>Data!C4/200*150</f>
+        <v>79.5</v>
+      </c>
+      <c r="C4" s="6">
+        <f>Data!D4/200*150</f>
+        <v>2288.25</v>
+      </c>
+      <c r="D4" s="6">
+        <f>Data!E4/200*150</f>
+        <v>2047.5</v>
+      </c>
+      <c r="E4" s="6">
+        <f>Data!F4/200*150</f>
+        <v>816.00000000000011</v>
+      </c>
+      <c r="F4" s="6">
+        <f>Data!G4/200*150</f>
+        <v>2225.25</v>
+      </c>
+      <c r="G4" s="6">
+        <f>Data!H4/200*150</f>
+        <v>1863</v>
+      </c>
+      <c r="H4" s="6">
+        <f>Data!I4/200*150</f>
+        <v>948.75</v>
+      </c>
+      <c r="I4" s="6">
+        <f>Data!J4/200*150</f>
+        <v>1548.75</v>
+      </c>
+      <c r="J4" s="6">
+        <f>Data!K4/200*150</f>
+        <v>98.25</v>
+      </c>
+      <c r="K4" s="6">
+        <f>Data!L4/200*150</f>
+        <v>224.25000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>0.125</v>
       </c>
-      <c r="B5" s="7">
-        <f>Data!C5/3247*150</f>
-        <v>3.9267015706806281</v>
-      </c>
-      <c r="C5" s="7">
-        <f>Data!D5/3247*150</f>
-        <v>138.82044964582693</v>
-      </c>
-      <c r="D5" s="7">
-        <f>Data!E5/3247*150</f>
-        <v>135.26331998768092</v>
-      </c>
-      <c r="E5" s="7">
-        <f>Data!F5/3247*150</f>
-        <v>51.370495842315982</v>
-      </c>
-      <c r="F5" s="7">
-        <f>Data!G5/3247*150</f>
-        <v>136.2796427471512</v>
-      </c>
-      <c r="G5" s="7">
-        <f>Data!H5/3247*150</f>
-        <v>108.37696335078533</v>
-      </c>
-      <c r="H5" s="7">
-        <f>Data!I5/3247*150</f>
-        <v>53.264551894056055</v>
-      </c>
-      <c r="I5" s="7">
-        <f>Data!J5/3247*150</f>
-        <v>94.471820141669241</v>
-      </c>
-      <c r="J5" s="7">
-        <f>Data!K5/3247*150</f>
-        <v>5.3587927317523869</v>
-      </c>
-      <c r="K5" s="7">
-        <f>Data!L5/3247*150</f>
-        <v>18.663381582999691</v>
+      <c r="B5" s="6">
+        <f>Data!C5/200*150</f>
+        <v>63.75</v>
+      </c>
+      <c r="C5" s="6">
+        <f>Data!D5/200*150</f>
+        <v>2253.75</v>
+      </c>
+      <c r="D5" s="6">
+        <f>Data!E5/200*150</f>
+        <v>2196</v>
+      </c>
+      <c r="E5" s="6">
+        <f>Data!F5/200*150</f>
+        <v>833.99999999999989</v>
+      </c>
+      <c r="F5" s="6">
+        <f>Data!G5/200*150</f>
+        <v>2212.5</v>
+      </c>
+      <c r="G5" s="6">
+        <f>Data!H5/200*150</f>
+        <v>1759.5</v>
+      </c>
+      <c r="H5" s="6">
+        <f>Data!I5/200*150</f>
+        <v>864.75</v>
+      </c>
+      <c r="I5" s="6">
+        <f>Data!J5/200*150</f>
+        <v>1533.75</v>
+      </c>
+      <c r="J5" s="6">
+        <f>Data!K5/200*150</f>
+        <v>87</v>
+      </c>
+      <c r="K5" s="6">
+        <f>Data!L5/200*150</f>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>0.16666666666666699</v>
       </c>
-      <c r="B6" s="7">
-        <f>Data!C6/3247*150</f>
-        <v>4.6196489066830919</v>
-      </c>
-      <c r="C6" s="7">
-        <f>Data!D6/3247*150</f>
-        <v>131.84477979673545</v>
-      </c>
-      <c r="D6" s="7">
-        <f>Data!E6/3247*150</f>
-        <v>137.157376039421</v>
-      </c>
-      <c r="E6" s="7">
-        <f>Data!F6/3247*150</f>
-        <v>47.81336618417</v>
-      </c>
-      <c r="F6" s="7">
-        <f>Data!G6/3247*150</f>
-        <v>137.61934093008932</v>
-      </c>
-      <c r="G6" s="7">
-        <f>Data!H6/3247*150</f>
-        <v>99.322451493686486</v>
-      </c>
-      <c r="H6" s="7">
-        <f>Data!I6/3247*150</f>
-        <v>48.783492454573455</v>
-      </c>
-      <c r="I6" s="7">
-        <f>Data!J6/3247*150</f>
-        <v>89.020634431783179</v>
-      </c>
-      <c r="J6" s="7">
-        <f>Data!K6/3247*150</f>
-        <v>4.4810594394825989</v>
-      </c>
-      <c r="K6" s="7">
-        <f>Data!L6/3247*150</f>
-        <v>24.99230058515553</v>
+      <c r="B6" s="6">
+        <f>Data!C6/200*150</f>
+        <v>75</v>
+      </c>
+      <c r="C6" s="6">
+        <f>Data!D6/200*150</f>
+        <v>2140.5</v>
+      </c>
+      <c r="D6" s="6">
+        <f>Data!E6/200*150</f>
+        <v>2226.75</v>
+      </c>
+      <c r="E6" s="6">
+        <f>Data!F6/200*150</f>
+        <v>776.25</v>
+      </c>
+      <c r="F6" s="6">
+        <f>Data!G6/200*150</f>
+        <v>2234.25</v>
+      </c>
+      <c r="G6" s="6">
+        <f>Data!H6/200*150</f>
+        <v>1612.5</v>
+      </c>
+      <c r="H6" s="6">
+        <f>Data!I6/200*150</f>
+        <v>792</v>
+      </c>
+      <c r="I6" s="6">
+        <f>Data!J6/200*150</f>
+        <v>1445.25</v>
+      </c>
+      <c r="J6" s="6">
+        <f>Data!K6/200*150</f>
+        <v>72.75</v>
+      </c>
+      <c r="K6" s="6">
+        <f>Data!L6/200*150</f>
+        <v>405.75</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>0.20833333333333301</v>
       </c>
-      <c r="B7" s="7">
-        <f>Data!C7/3247*150</f>
-        <v>6.4675084693563294</v>
-      </c>
-      <c r="C7" s="7">
-        <f>Data!D7/3247*150</f>
-        <v>116.64613489374807</v>
-      </c>
-      <c r="D7" s="7">
-        <f>Data!E7/3247*150</f>
-        <v>137.01878657222051</v>
-      </c>
-      <c r="E7" s="7">
-        <f>Data!F7/3247*150</f>
-        <v>42.870341854019095</v>
-      </c>
-      <c r="F7" s="7">
-        <f>Data!G7/3247*150</f>
-        <v>131.38281490606715</v>
-      </c>
-      <c r="G7" s="7">
-        <f>Data!H7/3247*150</f>
-        <v>87.588543270711426</v>
-      </c>
-      <c r="H7" s="7">
-        <f>Data!I7/3247*150</f>
-        <v>44.487218971358182</v>
-      </c>
-      <c r="I7" s="7">
-        <f>Data!J7/3247*150</f>
-        <v>83.800431167231295</v>
-      </c>
-      <c r="J7" s="7">
-        <f>Data!K7/3247*150</f>
-        <v>3.0027717893440098</v>
-      </c>
-      <c r="K7" s="7">
-        <f>Data!L7/3247*150</f>
-        <v>27.302125038497074</v>
+      <c r="B7" s="6">
+        <f>Data!C7/200*150</f>
+        <v>105</v>
+      </c>
+      <c r="C7" s="6">
+        <f>Data!D7/200*150</f>
+        <v>1893.75</v>
+      </c>
+      <c r="D7" s="6">
+        <f>Data!E7/200*150</f>
+        <v>2224.5</v>
+      </c>
+      <c r="E7" s="6">
+        <f>Data!F7/200*150</f>
+        <v>696</v>
+      </c>
+      <c r="F7" s="6">
+        <f>Data!G7/200*150</f>
+        <v>2133</v>
+      </c>
+      <c r="G7" s="6">
+        <f>Data!H7/200*150</f>
+        <v>1422</v>
+      </c>
+      <c r="H7" s="6">
+        <f>Data!I7/200*150</f>
+        <v>722.25000000000011</v>
+      </c>
+      <c r="I7" s="6">
+        <f>Data!J7/200*150</f>
+        <v>1360.5</v>
+      </c>
+      <c r="J7" s="6">
+        <f>Data!K7/200*150</f>
+        <v>48.75</v>
+      </c>
+      <c r="K7" s="6">
+        <f>Data!L7/200*150</f>
+        <v>443.25</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>0.25</v>
       </c>
-      <c r="B8" s="7">
-        <f>Data!C8/3247*150</f>
-        <v>10.532799507237451</v>
-      </c>
-      <c r="C8" s="7">
-        <f>Data!D8/3247*150</f>
-        <v>90.822297505389599</v>
-      </c>
-      <c r="D8" s="7">
-        <f>Data!E8/3247*150</f>
-        <v>136.46442870341852</v>
-      </c>
-      <c r="E8" s="7">
-        <f>Data!F8/3247*150</f>
-        <v>38.343085925469666</v>
-      </c>
-      <c r="F8" s="7">
-        <f>Data!G8/3247*150</f>
-        <v>120.11087157376039</v>
-      </c>
-      <c r="G8" s="7">
-        <f>Data!H8/3247*150</f>
-        <v>75.485063135201727</v>
-      </c>
-      <c r="H8" s="7">
-        <f>Data!I8/3247*150</f>
-        <v>39.267015706806284</v>
-      </c>
-      <c r="I8" s="7">
-        <f>Data!J8/3247*150</f>
-        <v>79.827533107483845</v>
-      </c>
-      <c r="J8" s="7">
-        <f>Data!K8/3247*150</f>
-        <v>3.0489682784108409</v>
-      </c>
-      <c r="K8" s="7">
-        <f>Data!L8/3247*150</f>
-        <v>29.288574068370803</v>
+      <c r="B8" s="6">
+        <f>Data!C8/200*150</f>
+        <v>170.99999999999997</v>
+      </c>
+      <c r="C8" s="6">
+        <f>Data!D8/200*150</f>
+        <v>1474.5</v>
+      </c>
+      <c r="D8" s="6">
+        <f>Data!E8/200*150</f>
+        <v>2215.5</v>
+      </c>
+      <c r="E8" s="6">
+        <f>Data!F8/200*150</f>
+        <v>622.5</v>
+      </c>
+      <c r="F8" s="6">
+        <f>Data!G8/200*150</f>
+        <v>1950</v>
+      </c>
+      <c r="G8" s="6">
+        <f>Data!H8/200*150</f>
+        <v>1225.5</v>
+      </c>
+      <c r="H8" s="6">
+        <f>Data!I8/200*150</f>
+        <v>637.5</v>
+      </c>
+      <c r="I8" s="6">
+        <f>Data!J8/200*150</f>
+        <v>1296</v>
+      </c>
+      <c r="J8" s="6">
+        <f>Data!K8/200*150</f>
+        <v>49.5</v>
+      </c>
+      <c r="K8" s="6">
+        <f>Data!L8/200*150</f>
+        <v>475.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>0.29166666666666702</v>
       </c>
-      <c r="B9" s="7">
-        <f>Data!C9/3247*150</f>
-        <v>18.570988604866031</v>
-      </c>
-      <c r="C9" s="7">
-        <f>Data!D9/3247*150</f>
-        <v>66.98490914690484</v>
-      </c>
-      <c r="D9" s="7">
-        <f>Data!E9/3247*150</f>
-        <v>132.0757622420696</v>
-      </c>
-      <c r="E9" s="7">
-        <f>Data!F9/3247*150</f>
-        <v>36.356636895595933</v>
-      </c>
-      <c r="F9" s="7">
-        <f>Data!G9/3247*150</f>
-        <v>103.89590391130274</v>
-      </c>
-      <c r="G9" s="7">
-        <f>Data!H9/3247*150</f>
-        <v>64.675084693563292</v>
-      </c>
-      <c r="H9" s="7">
-        <f>Data!I9/3247*150</f>
-        <v>38.527871881736992</v>
-      </c>
-      <c r="I9" s="7">
-        <f>Data!J9/3247*150</f>
-        <v>68.509393286110253</v>
-      </c>
-      <c r="J9" s="7">
-        <f>Data!K9/3247*150</f>
-        <v>3.4647366800123192</v>
-      </c>
-      <c r="K9" s="7">
-        <f>Data!L9/3247*150</f>
-        <v>21.850939328611027</v>
+      <c r="B9" s="6">
+        <f>Data!C9/200*150</f>
+        <v>301.49999999999994</v>
+      </c>
+      <c r="C9" s="6">
+        <f>Data!D9/200*150</f>
+        <v>1087.5</v>
+      </c>
+      <c r="D9" s="6">
+        <f>Data!E9/200*150</f>
+        <v>2144.25</v>
+      </c>
+      <c r="E9" s="6">
+        <f>Data!F9/200*150</f>
+        <v>590.25</v>
+      </c>
+      <c r="F9" s="6">
+        <f>Data!G9/200*150</f>
+        <v>1686.7499999999998</v>
+      </c>
+      <c r="G9" s="6">
+        <f>Data!H9/200*150</f>
+        <v>1050</v>
+      </c>
+      <c r="H9" s="6">
+        <f>Data!I9/200*150</f>
+        <v>625.5</v>
+      </c>
+      <c r="I9" s="6">
+        <f>Data!J9/200*150</f>
+        <v>1112.25</v>
+      </c>
+      <c r="J9" s="6">
+        <f>Data!K9/200*150</f>
+        <v>56.25</v>
+      </c>
+      <c r="K9" s="6">
+        <f>Data!L9/200*150</f>
+        <v>354.75000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B10" s="7">
-        <f>Data!C10/3247*150</f>
-        <v>26.10101632275947</v>
-      </c>
-      <c r="C10" s="7">
-        <f>Data!D10/3247*150</f>
-        <v>63.704958423159837</v>
-      </c>
-      <c r="D10" s="7">
-        <f>Data!E10/3247*150</f>
-        <v>125.56205728364645</v>
-      </c>
-      <c r="E10" s="7">
-        <f>Data!F10/3247*150</f>
-        <v>30.905451185709886</v>
-      </c>
-      <c r="F10" s="7">
-        <f>Data!G10/3247*150</f>
-        <v>87.496150292577767</v>
-      </c>
-      <c r="G10" s="7">
-        <f>Data!H10/3247*150</f>
-        <v>52.525408068986756</v>
-      </c>
-      <c r="H10" s="7">
-        <f>Data!I10/3247*150</f>
-        <v>35.848475515860791</v>
-      </c>
-      <c r="I10" s="7">
-        <f>Data!J10/3247*150</f>
-        <v>61.810902371419772</v>
-      </c>
-      <c r="J10" s="7">
-        <f>Data!K10/3247*150</f>
-        <v>3.7881121034801355</v>
-      </c>
-      <c r="K10" s="7">
-        <f>Data!L10/3247*150</f>
-        <v>13.858946720049277</v>
+      <c r="B10" s="6">
+        <f>Data!C10/200*150</f>
+        <v>423.75</v>
+      </c>
+      <c r="C10" s="6">
+        <f>Data!D10/200*150</f>
+        <v>1034.25</v>
+      </c>
+      <c r="D10" s="6">
+        <f>Data!E10/200*150</f>
+        <v>2038.5</v>
+      </c>
+      <c r="E10" s="6">
+        <f>Data!F10/200*150</f>
+        <v>501.75000000000006</v>
+      </c>
+      <c r="F10" s="6">
+        <f>Data!G10/200*150</f>
+        <v>1420.5</v>
+      </c>
+      <c r="G10" s="6">
+        <f>Data!H10/200*150</f>
+        <v>852.74999999999989</v>
+      </c>
+      <c r="H10" s="6">
+        <f>Data!I10/200*150</f>
+        <v>582</v>
+      </c>
+      <c r="I10" s="6">
+        <f>Data!J10/200*150</f>
+        <v>1003.5000000000001</v>
+      </c>
+      <c r="J10" s="6">
+        <f>Data!K10/200*150</f>
+        <v>61.499999999999993</v>
+      </c>
+      <c r="K10" s="6">
+        <f>Data!L10/200*150</f>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>0.375</v>
       </c>
-      <c r="B11" s="7">
-        <f>Data!C11/3247*150</f>
-        <v>25.962426855558977</v>
-      </c>
-      <c r="C11" s="7">
-        <f>Data!D11/3247*150</f>
-        <v>68.417000307976593</v>
-      </c>
-      <c r="D11" s="7">
-        <f>Data!E11/3247*150</f>
-        <v>119.55651370495842</v>
-      </c>
-      <c r="E11" s="7">
-        <f>Data!F11/3247*150</f>
-        <v>28.780412688635664</v>
-      </c>
-      <c r="F11" s="7">
-        <f>Data!G11/3247*150</f>
-        <v>79.596550662149681</v>
-      </c>
-      <c r="G11" s="7">
-        <f>Data!H11/3247*150</f>
-        <v>56.914074530335697</v>
-      </c>
-      <c r="H11" s="7">
-        <f>Data!I11/3247*150</f>
-        <v>33.49245457345242</v>
-      </c>
-      <c r="I11" s="7">
-        <f>Data!J11/3247*150</f>
-        <v>56.544502617801051</v>
-      </c>
-      <c r="J11" s="7">
-        <f>Data!K11/3247*150</f>
-        <v>3.7419156144133043</v>
-      </c>
-      <c r="K11" s="7">
-        <f>Data!L11/3247*150</f>
-        <v>19.910686787804128</v>
+      <c r="B11" s="6">
+        <f>Data!C11/200*150</f>
+        <v>421.5</v>
+      </c>
+      <c r="C11" s="6">
+        <f>Data!D11/200*150</f>
+        <v>1110.75</v>
+      </c>
+      <c r="D11" s="6">
+        <f>Data!E11/200*150</f>
+        <v>1941</v>
+      </c>
+      <c r="E11" s="6">
+        <f>Data!F11/200*150</f>
+        <v>467.25000000000006</v>
+      </c>
+      <c r="F11" s="6">
+        <f>Data!G11/200*150</f>
+        <v>1292.25</v>
+      </c>
+      <c r="G11" s="6">
+        <f>Data!H11/200*150</f>
+        <v>924</v>
+      </c>
+      <c r="H11" s="6">
+        <f>Data!I11/200*150</f>
+        <v>543.75</v>
+      </c>
+      <c r="I11" s="6">
+        <f>Data!J11/200*150</f>
+        <v>918</v>
+      </c>
+      <c r="J11" s="6">
+        <f>Data!K11/200*150</f>
+        <v>60.750000000000007</v>
+      </c>
+      <c r="K11" s="6">
+        <f>Data!L11/200*150</f>
+        <v>323.24999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B12" s="7">
-        <f>Data!C12/3247*150</f>
-        <v>18.709578072066524</v>
-      </c>
-      <c r="C12" s="7">
-        <f>Data!D12/3247*150</f>
-        <v>56.544502617801051</v>
-      </c>
-      <c r="D12" s="7">
-        <f>Data!E12/3247*150</f>
-        <v>115.21404373267633</v>
-      </c>
-      <c r="E12" s="7">
-        <f>Data!F12/3247*150</f>
-        <v>32.01416692331383</v>
-      </c>
-      <c r="F12" s="7">
-        <f>Data!G12/3247*150</f>
-        <v>76.732368340006147</v>
-      </c>
-      <c r="G12" s="7">
-        <f>Data!H12/3247*150</f>
-        <v>64.21311980289498</v>
-      </c>
-      <c r="H12" s="7">
-        <f>Data!I12/3247*150</f>
-        <v>28.179858330766862</v>
-      </c>
-      <c r="I12" s="7">
-        <f>Data!J12/3247*150</f>
-        <v>57.098860486603016</v>
-      </c>
-      <c r="J12" s="7">
-        <f>Data!K12/3247*150</f>
-        <v>2.8641823221435172</v>
-      </c>
-      <c r="K12" s="7">
-        <f>Data!L12/3247*150</f>
-        <v>31.967970434246997</v>
+      <c r="B12" s="6">
+        <f>Data!C12/200*150</f>
+        <v>303.75</v>
+      </c>
+      <c r="C12" s="6">
+        <f>Data!D12/200*150</f>
+        <v>918</v>
+      </c>
+      <c r="D12" s="6">
+        <f>Data!E12/200*150</f>
+        <v>1870.5</v>
+      </c>
+      <c r="E12" s="6">
+        <f>Data!F12/200*150</f>
+        <v>519.75</v>
+      </c>
+      <c r="F12" s="6">
+        <f>Data!G12/200*150</f>
+        <v>1245.75</v>
+      </c>
+      <c r="G12" s="6">
+        <f>Data!H12/200*150</f>
+        <v>1042.5</v>
+      </c>
+      <c r="H12" s="6">
+        <f>Data!I12/200*150</f>
+        <v>457.5</v>
+      </c>
+      <c r="I12" s="6">
+        <f>Data!J12/200*150</f>
+        <v>927</v>
+      </c>
+      <c r="J12" s="6">
+        <f>Data!K12/200*150</f>
+        <v>46.5</v>
+      </c>
+      <c r="K12" s="6">
+        <f>Data!L12/200*150</f>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="7">
-        <f>Data!C13/3247*150</f>
-        <v>16.122574684323993</v>
-      </c>
-      <c r="C13" s="7">
-        <f>Data!D13/3247*150</f>
-        <v>51.555281798583309</v>
-      </c>
-      <c r="D13" s="7">
-        <f>Data!E13/3247*150</f>
-        <v>114.56729288574068</v>
-      </c>
-      <c r="E13" s="7">
-        <f>Data!F13/3247*150</f>
-        <v>39.267015706806284</v>
-      </c>
-      <c r="F13" s="7">
-        <f>Data!G13/3247*150</f>
-        <v>78.349245457345233</v>
-      </c>
-      <c r="G13" s="7">
-        <f>Data!H13/3247*150</f>
-        <v>67.03110563597167</v>
-      </c>
-      <c r="H13" s="7">
-        <f>Data!I13/3247*150</f>
-        <v>21.019402525408069</v>
-      </c>
-      <c r="I13" s="7">
-        <f>Data!J13/3247*150</f>
-        <v>55.38959039113027</v>
-      </c>
-      <c r="J13" s="7">
-        <f>Data!K13/3247*150</f>
-        <v>4.01909454881429</v>
-      </c>
-      <c r="K13" s="7">
-        <f>Data!L13/3247*150</f>
-        <v>43.424699722821067</v>
+      <c r="B13" s="6">
+        <f>Data!C13/200*150</f>
+        <v>261.75</v>
+      </c>
+      <c r="C13" s="6">
+        <f>Data!D13/200*150</f>
+        <v>837</v>
+      </c>
+      <c r="D13" s="6">
+        <f>Data!E13/200*150</f>
+        <v>1860</v>
+      </c>
+      <c r="E13" s="6">
+        <f>Data!F13/200*150</f>
+        <v>637.5</v>
+      </c>
+      <c r="F13" s="6">
+        <f>Data!G13/200*150</f>
+        <v>1272</v>
+      </c>
+      <c r="G13" s="6">
+        <f>Data!H13/200*150</f>
+        <v>1088.25</v>
+      </c>
+      <c r="H13" s="6">
+        <f>Data!I13/200*150</f>
+        <v>341.25</v>
+      </c>
+      <c r="I13" s="6">
+        <f>Data!J13/200*150</f>
+        <v>899.25</v>
+      </c>
+      <c r="J13" s="6">
+        <f>Data!K13/200*150</f>
+        <v>65.25</v>
+      </c>
+      <c r="K13" s="6">
+        <f>Data!L13/200*150</f>
+        <v>705</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>0.5</v>
       </c>
-      <c r="B14" s="7">
-        <f>Data!C14/3247*150</f>
-        <v>17.831844779796736</v>
-      </c>
-      <c r="C14" s="7">
-        <f>Data!D14/3247*150</f>
-        <v>47.767169695103178</v>
-      </c>
-      <c r="D14" s="7">
-        <f>Data!E14/3247*150</f>
-        <v>114.89066830920849</v>
-      </c>
-      <c r="E14" s="7">
-        <f>Data!F14/3247*150</f>
-        <v>40.976285802279023</v>
-      </c>
-      <c r="F14" s="7">
-        <f>Data!G14/3247*150</f>
-        <v>88.420080073914392</v>
-      </c>
-      <c r="G14" s="7">
-        <f>Data!H14/3247*150</f>
-        <v>71.604558053587922</v>
-      </c>
-      <c r="H14" s="7">
-        <f>Data!I14/3247*150</f>
-        <v>18.801971050200184</v>
-      </c>
-      <c r="I14" s="7">
-        <f>Data!J14/3247*150</f>
-        <v>54.049892208192176</v>
-      </c>
-      <c r="J14" s="7">
-        <f>Data!K14/3247*150</f>
-        <v>5.9593470896211889</v>
-      </c>
-      <c r="K14" s="7">
-        <f>Data!L14/3247*150</f>
-        <v>50.862334462580847</v>
+      <c r="B14" s="6">
+        <f>Data!C14/200*150</f>
+        <v>289.5</v>
+      </c>
+      <c r="C14" s="6">
+        <f>Data!D14/200*150</f>
+        <v>775.5</v>
+      </c>
+      <c r="D14" s="6">
+        <f>Data!E14/200*150</f>
+        <v>1865.25</v>
+      </c>
+      <c r="E14" s="6">
+        <f>Data!F14/200*150</f>
+        <v>665.24999999999989</v>
+      </c>
+      <c r="F14" s="6">
+        <f>Data!G14/200*150</f>
+        <v>1435.5</v>
+      </c>
+      <c r="G14" s="6">
+        <f>Data!H14/200*150</f>
+        <v>1162.5</v>
+      </c>
+      <c r="H14" s="6">
+        <f>Data!I14/200*150</f>
+        <v>305.25</v>
+      </c>
+      <c r="I14" s="6">
+        <f>Data!J14/200*150</f>
+        <v>877.5</v>
+      </c>
+      <c r="J14" s="6">
+        <f>Data!K14/200*150</f>
+        <v>96.75</v>
+      </c>
+      <c r="K14" s="6">
+        <f>Data!L14/200*150</f>
+        <v>825.75</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="7">
-        <f>Data!C15/3247*150</f>
-        <v>18.432399137665538</v>
-      </c>
-      <c r="C15" s="7">
-        <f>Data!D15/3247*150</f>
-        <v>50.81613797351401</v>
-      </c>
-      <c r="D15" s="7">
-        <f>Data!E15/3247*150</f>
-        <v>117.01570680628272</v>
-      </c>
-      <c r="E15" s="7">
-        <f>Data!F15/3247*150</f>
-        <v>38.712657838004311</v>
-      </c>
-      <c r="F15" s="7">
-        <f>Data!G15/3247*150</f>
-        <v>104.40406529103788</v>
-      </c>
-      <c r="G15" s="7">
-        <f>Data!H15/3247*150</f>
-        <v>71.142593162919624</v>
-      </c>
-      <c r="H15" s="7">
-        <f>Data!I15/3247*150</f>
-        <v>18.801971050200184</v>
-      </c>
-      <c r="I15" s="7">
-        <f>Data!J15/3247*150</f>
-        <v>54.742839544194645</v>
-      </c>
-      <c r="J15" s="7">
-        <f>Data!K15/3247*150</f>
-        <v>7.8534031413612562</v>
-      </c>
-      <c r="K15" s="7">
-        <f>Data!L15/3247*150</f>
-        <v>52.017246689251614</v>
+      <c r="B15" s="6">
+        <f>Data!C15/200*150</f>
+        <v>299.25</v>
+      </c>
+      <c r="C15" s="6">
+        <f>Data!D15/200*150</f>
+        <v>825</v>
+      </c>
+      <c r="D15" s="6">
+        <f>Data!E15/200*150</f>
+        <v>1899.7499999999998</v>
+      </c>
+      <c r="E15" s="6">
+        <f>Data!F15/200*150</f>
+        <v>628.50000000000011</v>
+      </c>
+      <c r="F15" s="6">
+        <f>Data!G15/200*150</f>
+        <v>1695</v>
+      </c>
+      <c r="G15" s="6">
+        <f>Data!H15/200*150</f>
+        <v>1155</v>
+      </c>
+      <c r="H15" s="6">
+        <f>Data!I15/200*150</f>
+        <v>305.25</v>
+      </c>
+      <c r="I15" s="6">
+        <f>Data!J15/200*150</f>
+        <v>888.75</v>
+      </c>
+      <c r="J15" s="6">
+        <f>Data!K15/200*150</f>
+        <v>127.5</v>
+      </c>
+      <c r="K15" s="6">
+        <f>Data!L15/200*150</f>
+        <v>844.5</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B16" s="7">
-        <f>Data!C16/3247*150</f>
-        <v>18.940560517400677</v>
-      </c>
-      <c r="C16" s="7">
-        <f>Data!D16/3247*150</f>
-        <v>65.321835540498924</v>
-      </c>
-      <c r="D16" s="7">
-        <f>Data!E16/3247*150</f>
-        <v>117.38527871881737</v>
-      </c>
-      <c r="E16" s="7">
-        <f>Data!F16/3247*150</f>
-        <v>38.481675392670155</v>
-      </c>
-      <c r="F16" s="7">
-        <f>Data!G16/3247*150</f>
-        <v>112.71943332306745</v>
-      </c>
-      <c r="G16" s="7">
-        <f>Data!H16/3247*150</f>
-        <v>70.773021250384971</v>
-      </c>
-      <c r="H16" s="7">
-        <f>Data!I16/3247*150</f>
-        <v>19.633507853403142</v>
-      </c>
-      <c r="I16" s="7">
-        <f>Data!J16/3247*150</f>
-        <v>63.797351401293504</v>
-      </c>
-      <c r="J16" s="7">
-        <f>Data!K16/3247*150</f>
-        <v>10.440406529103788</v>
-      </c>
-      <c r="K16" s="7">
-        <f>Data!L16/3247*150</f>
-        <v>52.941176470588239</v>
+      <c r="B16" s="6">
+        <f>Data!C16/200*150</f>
+        <v>307.5</v>
+      </c>
+      <c r="C16" s="6">
+        <f>Data!D16/200*150</f>
+        <v>1060.5</v>
+      </c>
+      <c r="D16" s="6">
+        <f>Data!E16/200*150</f>
+        <v>1905.75</v>
+      </c>
+      <c r="E16" s="6">
+        <f>Data!F16/200*150</f>
+        <v>624.75</v>
+      </c>
+      <c r="F16" s="6">
+        <f>Data!G16/200*150</f>
+        <v>1830</v>
+      </c>
+      <c r="G16" s="6">
+        <f>Data!H16/200*150</f>
+        <v>1149</v>
+      </c>
+      <c r="H16" s="6">
+        <f>Data!I16/200*150</f>
+        <v>318.75</v>
+      </c>
+      <c r="I16" s="6">
+        <f>Data!J16/200*150</f>
+        <v>1035.75</v>
+      </c>
+      <c r="J16" s="6">
+        <f>Data!K16/200*150</f>
+        <v>169.49999999999997</v>
+      </c>
+      <c r="K16" s="6">
+        <f>Data!L16/200*150</f>
+        <v>859.50000000000011</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>0.625</v>
       </c>
-      <c r="B17" s="7">
-        <f>Data!C17/3247*150</f>
-        <v>19.07914998460117</v>
-      </c>
-      <c r="C17" s="7">
-        <f>Data!D17/3247*150</f>
-        <v>73.267631659993839</v>
-      </c>
-      <c r="D17" s="7">
-        <f>Data!E17/3247*150</f>
-        <v>120.29565753002771</v>
-      </c>
-      <c r="E17" s="7">
-        <f>Data!F17/3247*150</f>
-        <v>46.427471512165077</v>
-      </c>
-      <c r="F17" s="7">
-        <f>Data!G17/3247*150</f>
-        <v>116.87711733908223</v>
-      </c>
-      <c r="G17" s="7">
-        <f>Data!H17/3247*150</f>
-        <v>68.647982753310757</v>
-      </c>
-      <c r="H17" s="7">
-        <f>Data!I17/3247*150</f>
-        <v>21.435170927009548</v>
-      </c>
-      <c r="I17" s="7">
-        <f>Data!J17/3247*150</f>
-        <v>69.710502001847857</v>
-      </c>
-      <c r="J17" s="7">
-        <f>Data!K17/3247*150</f>
-        <v>15.244841392054203</v>
-      </c>
-      <c r="K17" s="7">
-        <f>Data!L17/3247*150</f>
-        <v>51.555281798583309</v>
+      <c r="B17" s="6">
+        <f>Data!C17/200*150</f>
+        <v>309.75</v>
+      </c>
+      <c r="C17" s="6">
+        <f>Data!D17/200*150</f>
+        <v>1189.5</v>
+      </c>
+      <c r="D17" s="6">
+        <f>Data!E17/200*150</f>
+        <v>1953</v>
+      </c>
+      <c r="E17" s="6">
+        <f>Data!F17/200*150</f>
+        <v>753.75</v>
+      </c>
+      <c r="F17" s="6">
+        <f>Data!G17/200*150</f>
+        <v>1897.5</v>
+      </c>
+      <c r="G17" s="6">
+        <f>Data!H17/200*150</f>
+        <v>1114.5</v>
+      </c>
+      <c r="H17" s="6">
+        <f>Data!I17/200*150</f>
+        <v>348</v>
+      </c>
+      <c r="I17" s="6">
+        <f>Data!J17/200*150</f>
+        <v>1131.75</v>
+      </c>
+      <c r="J17" s="6">
+        <f>Data!K17/200*150</f>
+        <v>247.5</v>
+      </c>
+      <c r="K17" s="6">
+        <f>Data!L17/200*150</f>
+        <v>837</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B18" s="7">
-        <f>Data!C18/3247*150</f>
-        <v>21.481367416076377</v>
-      </c>
-      <c r="C18" s="7">
-        <f>Data!D18/3247*150</f>
-        <v>80.936248845087775</v>
-      </c>
-      <c r="D18" s="7">
-        <f>Data!E18/3247*150</f>
-        <v>119.46412072682476</v>
-      </c>
-      <c r="E18" s="7">
-        <f>Data!F18/3247*150</f>
-        <v>51.000923929781337</v>
-      </c>
-      <c r="F18" s="7">
-        <f>Data!G18/3247*150</f>
-        <v>114.98306128734217</v>
-      </c>
-      <c r="G18" s="7">
-        <f>Data!H18/3247*150</f>
-        <v>59.131506005543578</v>
-      </c>
-      <c r="H18" s="7">
-        <f>Data!I18/3247*150</f>
-        <v>23.744995380351096</v>
-      </c>
-      <c r="I18" s="7">
-        <f>Data!J18/3247*150</f>
-        <v>77.656298121342772</v>
-      </c>
-      <c r="J18" s="7">
-        <f>Data!K18/3247*150</f>
-        <v>19.171542962734833</v>
-      </c>
-      <c r="K18" s="7">
-        <f>Data!L18/3247*150</f>
-        <v>50.954727440714507</v>
+      <c r="B18" s="6">
+        <f>Data!C18/200*150</f>
+        <v>348.75</v>
+      </c>
+      <c r="C18" s="6">
+        <f>Data!D18/200*150</f>
+        <v>1314</v>
+      </c>
+      <c r="D18" s="6">
+        <f>Data!E18/200*150</f>
+        <v>1939.5</v>
+      </c>
+      <c r="E18" s="6">
+        <f>Data!F18/200*150</f>
+        <v>827.99999999999989</v>
+      </c>
+      <c r="F18" s="6">
+        <f>Data!G18/200*150</f>
+        <v>1866.75</v>
+      </c>
+      <c r="G18" s="6">
+        <f>Data!H18/200*150</f>
+        <v>960</v>
+      </c>
+      <c r="H18" s="6">
+        <f>Data!I18/200*150</f>
+        <v>385.5</v>
+      </c>
+      <c r="I18" s="6">
+        <f>Data!J18/200*150</f>
+        <v>1260.75</v>
+      </c>
+      <c r="J18" s="6">
+        <f>Data!K18/200*150</f>
+        <v>311.25</v>
+      </c>
+      <c r="K18" s="6">
+        <f>Data!L18/200*150</f>
+        <v>827.25</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B19" s="7">
-        <f>Data!C19/3247*150</f>
-        <v>32.06036341238066</v>
-      </c>
-      <c r="C19" s="7">
-        <f>Data!D19/3247*150</f>
-        <v>87.911918694179249</v>
-      </c>
-      <c r="D19" s="7">
-        <f>Data!E19/3247*150</f>
-        <v>119.46412072682476</v>
-      </c>
-      <c r="E19" s="7">
-        <f>Data!F19/3247*150</f>
-        <v>48.783492454573455</v>
-      </c>
-      <c r="F19" s="7">
-        <f>Data!G19/3247*150</f>
-        <v>104.54265475823837</v>
-      </c>
-      <c r="G19" s="7">
-        <f>Data!H19/3247*150</f>
-        <v>53.403141361256544</v>
-      </c>
-      <c r="H19" s="7">
-        <f>Data!I19/3247*150</f>
-        <v>35.617493070526642</v>
-      </c>
-      <c r="I19" s="7">
-        <f>Data!J19/3247*150</f>
-        <v>82.922697874961514</v>
-      </c>
-      <c r="J19" s="7">
-        <f>Data!K19/3247*150</f>
-        <v>23.698798891284262</v>
-      </c>
-      <c r="K19" s="7">
-        <f>Data!L19/3247*150</f>
-        <v>51.139513396981826</v>
+      <c r="B19" s="6">
+        <f>Data!C19/200*150</f>
+        <v>520.5</v>
+      </c>
+      <c r="C19" s="6">
+        <f>Data!D19/200*150</f>
+        <v>1427.25</v>
+      </c>
+      <c r="D19" s="6">
+        <f>Data!E19/200*150</f>
+        <v>1939.5</v>
+      </c>
+      <c r="E19" s="6">
+        <f>Data!F19/200*150</f>
+        <v>792</v>
+      </c>
+      <c r="F19" s="6">
+        <f>Data!G19/200*150</f>
+        <v>1697.25</v>
+      </c>
+      <c r="G19" s="6">
+        <f>Data!H19/200*150</f>
+        <v>867</v>
+      </c>
+      <c r="H19" s="6">
+        <f>Data!I19/200*150</f>
+        <v>578.25</v>
+      </c>
+      <c r="I19" s="6">
+        <f>Data!J19/200*150</f>
+        <v>1346.25</v>
+      </c>
+      <c r="J19" s="6">
+        <f>Data!K19/200*150</f>
+        <v>384.75</v>
+      </c>
+      <c r="K19" s="6">
+        <f>Data!L19/200*150</f>
+        <v>830.25</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>0.75</v>
       </c>
-      <c r="B20" s="7">
-        <f>Data!C20/3247*150</f>
-        <v>53.172158915922388</v>
-      </c>
-      <c r="C20" s="7">
-        <f>Data!D20/3247*150</f>
-        <v>94.79519556513705</v>
-      </c>
-      <c r="D20" s="7">
-        <f>Data!E20/3247*150</f>
-        <v>119.74129966122574</v>
-      </c>
-      <c r="E20" s="7">
-        <f>Data!F20/3247*150</f>
-        <v>46.242685555897751</v>
-      </c>
-      <c r="F20" s="7">
-        <f>Data!G20/3247*150</f>
-        <v>91.330458885124727</v>
-      </c>
-      <c r="G20" s="7">
-        <f>Data!H20/3247*150</f>
-        <v>45.4111487526948</v>
-      </c>
-      <c r="H20" s="7">
-        <f>Data!I20/3247*150</f>
-        <v>52.479211579919927</v>
-      </c>
-      <c r="I20" s="7">
-        <f>Data!J20/3247*150</f>
-        <v>87.357560825377277</v>
-      </c>
-      <c r="J20" s="7">
-        <f>Data!K20/3247*150</f>
-        <v>34.554973821989527</v>
-      </c>
-      <c r="K20" s="7">
-        <f>Data!L20/3247*150</f>
-        <v>49.707422235910073</v>
+      <c r="B20" s="6">
+        <f>Data!C20/200*150</f>
+        <v>863.25</v>
+      </c>
+      <c r="C20" s="6">
+        <f>Data!D20/200*150</f>
+        <v>1539</v>
+      </c>
+      <c r="D20" s="6">
+        <f>Data!E20/200*150</f>
+        <v>1944.0000000000002</v>
+      </c>
+      <c r="E20" s="6">
+        <f>Data!F20/200*150</f>
+        <v>750.75</v>
+      </c>
+      <c r="F20" s="6">
+        <f>Data!G20/200*150</f>
+        <v>1482.75</v>
+      </c>
+      <c r="G20" s="6">
+        <f>Data!H20/200*150</f>
+        <v>737.25</v>
+      </c>
+      <c r="H20" s="6">
+        <f>Data!I20/200*150</f>
+        <v>852</v>
+      </c>
+      <c r="I20" s="6">
+        <f>Data!J20/200*150</f>
+        <v>1418.25</v>
+      </c>
+      <c r="J20" s="6">
+        <f>Data!K20/200*150</f>
+        <v>561</v>
+      </c>
+      <c r="K20" s="6">
+        <f>Data!L20/200*150</f>
+        <v>807</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B21" s="7">
-        <f>Data!C21/3247*150</f>
-        <v>72.713273791191867</v>
-      </c>
-      <c r="C21" s="7">
-        <f>Data!D21/3247*150</f>
-        <v>99.368647982753302</v>
-      </c>
-      <c r="D21" s="7">
-        <f>Data!E21/3247*150</f>
-        <v>119.41792423775793</v>
-      </c>
-      <c r="E21" s="7">
-        <f>Data!F21/3247*150</f>
-        <v>43.794271635355713</v>
-      </c>
-      <c r="F21" s="7">
-        <f>Data!G21/3247*150</f>
-        <v>84.862950415768395</v>
-      </c>
-      <c r="G21" s="7">
-        <f>Data!H21/3247*150</f>
-        <v>39.220819217739454</v>
-      </c>
-      <c r="H21" s="7">
-        <f>Data!I21/3247*150</f>
-        <v>72.94425623652603</v>
-      </c>
-      <c r="I21" s="7">
-        <f>Data!J21/3247*150</f>
-        <v>83.892824145364955</v>
-      </c>
-      <c r="J21" s="7">
-        <f>Data!K21/3247*150</f>
-        <v>52.848783492454579</v>
-      </c>
-      <c r="K21" s="7">
-        <f>Data!L21/3247*150</f>
-        <v>48.321527563905143</v>
+      <c r="B21" s="6">
+        <f>Data!C21/200*150</f>
+        <v>1180.5</v>
+      </c>
+      <c r="C21" s="6">
+        <f>Data!D21/200*150</f>
+        <v>1613.2500000000002</v>
+      </c>
+      <c r="D21" s="6">
+        <f>Data!E21/200*150</f>
+        <v>1938.75</v>
+      </c>
+      <c r="E21" s="6">
+        <f>Data!F21/200*150</f>
+        <v>711</v>
+      </c>
+      <c r="F21" s="6">
+        <f>Data!G21/200*150</f>
+        <v>1377.75</v>
+      </c>
+      <c r="G21" s="6">
+        <f>Data!H21/200*150</f>
+        <v>636.75</v>
+      </c>
+      <c r="H21" s="6">
+        <f>Data!I21/200*150</f>
+        <v>1184.25</v>
+      </c>
+      <c r="I21" s="6">
+        <f>Data!J21/200*150</f>
+        <v>1362</v>
+      </c>
+      <c r="J21" s="6">
+        <f>Data!K21/200*150</f>
+        <v>858</v>
+      </c>
+      <c r="K21" s="6">
+        <f>Data!L21/200*150</f>
+        <v>784.50000000000011</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B22" s="7">
-        <f>Data!C22/3247*150</f>
-        <v>76.270403449337849</v>
-      </c>
-      <c r="C22" s="7">
-        <f>Data!D22/3247*150</f>
-        <v>111.98028949799814</v>
-      </c>
-      <c r="D22" s="7">
-        <f>Data!E22/3247*150</f>
-        <v>121.03480135509702</v>
-      </c>
-      <c r="E22" s="7">
-        <f>Data!F22/3247*150</f>
-        <v>40.421927933477058</v>
-      </c>
-      <c r="F22" s="7">
-        <f>Data!G22/3247*150</f>
-        <v>88.7434554973822</v>
-      </c>
-      <c r="G22" s="7">
-        <f>Data!H22/3247*150</f>
-        <v>35.617493070526642</v>
-      </c>
-      <c r="H22" s="7">
-        <f>Data!I22/3247*150</f>
-        <v>88.92824145364952</v>
-      </c>
-      <c r="I22" s="7">
-        <f>Data!J22/3247*150</f>
-        <v>87.034185401909454</v>
-      </c>
-      <c r="J22" s="7">
-        <f>Data!K22/3247*150</f>
-        <v>72.251308900523568</v>
-      </c>
-      <c r="K22" s="7">
-        <f>Data!L22/3247*150</f>
-        <v>50.261780104712045</v>
+      <c r="B22" s="6">
+        <f>Data!C22/200*150</f>
+        <v>1238.2500000000002</v>
+      </c>
+      <c r="C22" s="6">
+        <f>Data!D22/200*150</f>
+        <v>1817.9999999999998</v>
+      </c>
+      <c r="D22" s="6">
+        <f>Data!E22/200*150</f>
+        <v>1965</v>
+      </c>
+      <c r="E22" s="6">
+        <f>Data!F22/200*150</f>
+        <v>656.25</v>
+      </c>
+      <c r="F22" s="6">
+        <f>Data!G22/200*150</f>
+        <v>1440.75</v>
+      </c>
+      <c r="G22" s="6">
+        <f>Data!H22/200*150</f>
+        <v>578.25</v>
+      </c>
+      <c r="H22" s="6">
+        <f>Data!I22/200*150</f>
+        <v>1443.75</v>
+      </c>
+      <c r="I22" s="6">
+        <f>Data!J22/200*150</f>
+        <v>1413</v>
+      </c>
+      <c r="J22" s="6">
+        <f>Data!K22/200*150</f>
+        <v>1173</v>
+      </c>
+      <c r="K22" s="6">
+        <f>Data!L22/200*150</f>
+        <v>816.00000000000011</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>0.875</v>
       </c>
-      <c r="B23" s="7">
-        <f>Data!C23/3247*150</f>
-        <v>76.224206960271019</v>
-      </c>
-      <c r="C23" s="7">
-        <f>Data!D23/3247*150</f>
-        <v>123.29842931937173</v>
-      </c>
-      <c r="D23" s="7">
-        <f>Data!E23/3247*150</f>
-        <v>120.34185401909455</v>
-      </c>
-      <c r="E23" s="7">
-        <f>Data!F23/3247*150</f>
-        <v>38.805050816137971</v>
-      </c>
-      <c r="F23" s="7">
-        <f>Data!G23/3247*150</f>
-        <v>100.61595318755775</v>
-      </c>
-      <c r="G23" s="7">
-        <f>Data!H23/3247*150</f>
-        <v>35.1093316907915</v>
-      </c>
-      <c r="H23" s="7">
-        <f>Data!I23/3247*150</f>
-        <v>94.979981521404383</v>
-      </c>
-      <c r="I23" s="7">
-        <f>Data!J23/3247*150</f>
-        <v>85.602094240837701</v>
-      </c>
-      <c r="J23" s="7">
-        <f>Data!K23/3247*150</f>
-        <v>84.400985525100097</v>
-      </c>
-      <c r="K23" s="7">
-        <f>Data!L23/3247*150</f>
-        <v>58.946720049276252</v>
+      <c r="B23" s="6">
+        <f>Data!C23/200*150</f>
+        <v>1237.5</v>
+      </c>
+      <c r="C23" s="6">
+        <f>Data!D23/200*150</f>
+        <v>2001.75</v>
+      </c>
+      <c r="D23" s="6">
+        <f>Data!E23/200*150</f>
+        <v>1953.75</v>
+      </c>
+      <c r="E23" s="6">
+        <f>Data!F23/200*150</f>
+        <v>630</v>
+      </c>
+      <c r="F23" s="6">
+        <f>Data!G23/200*150</f>
+        <v>1633.5</v>
+      </c>
+      <c r="G23" s="6">
+        <f>Data!H23/200*150</f>
+        <v>570</v>
+      </c>
+      <c r="H23" s="6">
+        <f>Data!I23/200*150</f>
+        <v>1542</v>
+      </c>
+      <c r="I23" s="6">
+        <f>Data!J23/200*150</f>
+        <v>1389.75</v>
+      </c>
+      <c r="J23" s="6">
+        <f>Data!K23/200*150</f>
+        <v>1370.25</v>
+      </c>
+      <c r="K23" s="6">
+        <f>Data!L23/200*150</f>
+        <v>957</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>0.91666666666666696</v>
       </c>
-      <c r="B24" s="7">
-        <f>Data!C24/3247*150</f>
-        <v>75.623652602402217</v>
-      </c>
-      <c r="C24" s="7">
-        <f>Data!D24/3247*150</f>
-        <v>125.46966430551278</v>
-      </c>
-      <c r="D24" s="7">
-        <f>Data!E24/3247*150</f>
-        <v>115.95318755774561</v>
-      </c>
-      <c r="E24" s="7">
-        <f>Data!F24/3247*150</f>
-        <v>33.58484755158608</v>
-      </c>
-      <c r="F24" s="7">
-        <f>Data!G24/3247*150</f>
-        <v>107.22205112411457</v>
-      </c>
-      <c r="G24" s="7">
-        <f>Data!H24/3247*150</f>
-        <v>39.036033261472127</v>
-      </c>
-      <c r="H24" s="7">
-        <f>Data!I24/3247*150</f>
-        <v>95.672928857406845</v>
-      </c>
-      <c r="I24" s="7">
-        <f>Data!J24/3247*150</f>
-        <v>84.631967970434246</v>
-      </c>
-      <c r="J24" s="7">
-        <f>Data!K24/3247*150</f>
-        <v>92.023406221127203</v>
-      </c>
-      <c r="K24" s="7">
-        <f>Data!L24/3247*150</f>
-        <v>73.683400061595322</v>
+      <c r="B24" s="6">
+        <f>Data!C24/200*150</f>
+        <v>1227.75</v>
+      </c>
+      <c r="C24" s="6">
+        <f>Data!D24/200*150</f>
+        <v>2037</v>
+      </c>
+      <c r="D24" s="6">
+        <f>Data!E24/200*150</f>
+        <v>1882.5</v>
+      </c>
+      <c r="E24" s="6">
+        <f>Data!F24/200*150</f>
+        <v>545.25</v>
+      </c>
+      <c r="F24" s="6">
+        <f>Data!G24/200*150</f>
+        <v>1740.75</v>
+      </c>
+      <c r="G24" s="6">
+        <f>Data!H24/200*150</f>
+        <v>633.75</v>
+      </c>
+      <c r="H24" s="6">
+        <f>Data!I24/200*150</f>
+        <v>1553.25</v>
+      </c>
+      <c r="I24" s="6">
+        <f>Data!J24/200*150</f>
+        <v>1374</v>
+      </c>
+      <c r="J24" s="6">
+        <f>Data!K24/200*150</f>
+        <v>1494.0000000000002</v>
+      </c>
+      <c r="K24" s="6">
+        <f>Data!L24/200*150</f>
+        <v>1196.25</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>0.95833333333333304</v>
       </c>
-      <c r="B25" s="7">
-        <f>Data!C25/3247*150</f>
-        <v>73.267631659993839</v>
-      </c>
-      <c r="C25" s="7">
-        <f>Data!D25/3247*150</f>
-        <v>125.10009239297813</v>
-      </c>
-      <c r="D25" s="7">
-        <f>Data!E25/3247*150</f>
-        <v>112.81182630120111</v>
-      </c>
-      <c r="E25" s="7">
-        <f>Data!F25/3247*150</f>
-        <v>33.307668617185094</v>
-      </c>
-      <c r="F25" s="7">
-        <f>Data!G25/3247*150</f>
-        <v>103.98829688943641</v>
-      </c>
-      <c r="G25" s="7">
-        <f>Data!H25/3247*150</f>
-        <v>51.278102864182323</v>
-      </c>
-      <c r="H25" s="7">
-        <f>Data!I25/3247*150</f>
-        <v>93.270711425931637</v>
-      </c>
-      <c r="I25" s="7">
-        <f>Data!J25/3247*150</f>
-        <v>79.91992608561749</v>
-      </c>
-      <c r="J25" s="7">
-        <f>Data!K25/3247*150</f>
-        <v>95.857714813674164</v>
-      </c>
-      <c r="K25" s="7">
-        <f>Data!L25/3247*150</f>
-        <v>80.243301509085313</v>
+      <c r="B25" s="6">
+        <f>Data!C25/200*150</f>
+        <v>1189.5</v>
+      </c>
+      <c r="C25" s="6">
+        <f>Data!D25/200*150</f>
+        <v>2030.9999999999998</v>
+      </c>
+      <c r="D25" s="6">
+        <f>Data!E25/200*150</f>
+        <v>1831.5000000000002</v>
+      </c>
+      <c r="E25" s="6">
+        <f>Data!F25/200*150</f>
+        <v>540.75</v>
+      </c>
+      <c r="F25" s="6">
+        <f>Data!G25/200*150</f>
+        <v>1688.2500000000002</v>
+      </c>
+      <c r="G25" s="6">
+        <f>Data!H25/200*150</f>
+        <v>832.5</v>
+      </c>
+      <c r="H25" s="6">
+        <f>Data!I25/200*150</f>
+        <v>1514.25</v>
+      </c>
+      <c r="I25" s="6">
+        <f>Data!J25/200*150</f>
+        <v>1297.5</v>
+      </c>
+      <c r="J25" s="6">
+        <f>Data!K25/200*150</f>
+        <v>1556.25</v>
+      </c>
+      <c r="K25" s="6">
+        <f>Data!L25/200*150</f>
+        <v>1302.75</v>
       </c>
     </row>
   </sheetData>

--- a/Data/WindProduction.xlsx
+++ b/Data/WindProduction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s213518_dtu_dk/Documents/23 Spring/46755 Renewables in Electricity Markets/Assignment 2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_2A96071C709FA31C1226FFF8A738A5939BC0FE6A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F7F6923-06D7-4063-A184-052204527650}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="11_2A96071C709FA31C1226FFF8A738A5939BC0FE6A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE953E98-7316-4B6B-B6AE-8641B4E62FE8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1421,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC6EAA4-9164-47C2-A2DF-99C653857F1A}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1471,44 +1471,44 @@
         <v>0</v>
       </c>
       <c r="B2" s="6">
-        <f>Data!C2/200*150</f>
-        <v>82.5</v>
+        <f>Data!C2/3204*150</f>
+        <v>5.1498127340823974</v>
       </c>
       <c r="C2" s="6">
-        <f>Data!D2/200*150</f>
-        <v>2376.75</v>
+        <f>Data!D2/3204*150</f>
+        <v>148.36142322097379</v>
       </c>
       <c r="D2" s="6">
-        <f>Data!E2/200*150</f>
-        <v>1932.75</v>
+        <f>Data!E2/3204*150</f>
+        <v>120.64606741573034</v>
       </c>
       <c r="E2" s="6">
-        <f>Data!F2/200*150</f>
-        <v>831.75</v>
+        <f>Data!F2/3204*150</f>
+        <v>51.919475655430716</v>
       </c>
       <c r="F2" s="6">
-        <f>Data!G2/200*150</f>
-        <v>2226.75</v>
+        <f>Data!G2/3204*150</f>
+        <v>138.99812734082397</v>
       </c>
       <c r="G2" s="6">
-        <f>Data!H2/200*150</f>
-        <v>1859.25</v>
+        <f>Data!H2/3204*150</f>
+        <v>116.05805243445693</v>
       </c>
       <c r="H2" s="6">
-        <f>Data!I2/200*150</f>
-        <v>1074.75</v>
+        <f>Data!I2/3204*150</f>
+        <v>67.088014981273403</v>
       </c>
       <c r="I2" s="6">
-        <f>Data!J2/200*150</f>
-        <v>1678.5</v>
+        <f>Data!J2/3204*150</f>
+        <v>104.77528089887642</v>
       </c>
       <c r="J2" s="6">
-        <f>Data!K2/200*150</f>
-        <v>200.25</v>
+        <f>Data!K2/3204*150</f>
+        <v>12.5</v>
       </c>
       <c r="K2" s="6">
-        <f>Data!L2/200*150</f>
-        <v>210</v>
+        <f>Data!L2/3204*150</f>
+        <v>13.108614232209739</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1516,44 +1516,44 @@
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="B3" s="6">
-        <f>Data!C3/200*150</f>
-        <v>89.25</v>
+        <f>Data!C3/3204*150</f>
+        <v>5.571161048689139</v>
       </c>
       <c r="C3" s="6">
-        <f>Data!D3/200*150</f>
-        <v>2365.5</v>
+        <f>Data!D3/3204*150</f>
+        <v>147.65917602996254</v>
       </c>
       <c r="D3" s="6">
-        <f>Data!E3/200*150</f>
-        <v>1953.75</v>
+        <f>Data!E3/3204*150</f>
+        <v>121.95692883895131</v>
       </c>
       <c r="E3" s="6">
-        <f>Data!F3/200*150</f>
-        <v>780</v>
+        <f>Data!F3/3204*150</f>
+        <v>48.68913857677903</v>
       </c>
       <c r="F3" s="6">
-        <f>Data!G3/200*150</f>
-        <v>2250.75</v>
+        <f>Data!G3/3204*150</f>
+        <v>140.49625468164794</v>
       </c>
       <c r="G3" s="6">
-        <f>Data!H3/200*150</f>
-        <v>1911</v>
+        <f>Data!H3/3204*150</f>
+        <v>119.28838951310863</v>
       </c>
       <c r="H3" s="6">
-        <f>Data!I3/200*150</f>
-        <v>1035.75</v>
+        <f>Data!I3/3204*150</f>
+        <v>64.653558052434462</v>
       </c>
       <c r="I3" s="6">
-        <f>Data!J3/200*150</f>
-        <v>1594.5000000000002</v>
+        <f>Data!J3/3204*150</f>
+        <v>99.531835205992508</v>
       </c>
       <c r="J3" s="6">
-        <f>Data!K3/200*150</f>
-        <v>122.24999999999999</v>
+        <f>Data!K3/3204*150</f>
+        <v>7.631086142322097</v>
       </c>
       <c r="K3" s="6">
-        <f>Data!L3/200*150</f>
-        <v>206.25</v>
+        <f>Data!L3/3204*150</f>
+        <v>12.874531835205993</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1561,44 +1561,44 @@
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="B4" s="6">
-        <f>Data!C4/200*150</f>
-        <v>79.5</v>
+        <f>Data!C4/3204*150</f>
+        <v>4.9625468164794002</v>
       </c>
       <c r="C4" s="6">
-        <f>Data!D4/200*150</f>
-        <v>2288.25</v>
+        <f>Data!D4/3204*150</f>
+        <v>142.8370786516854</v>
       </c>
       <c r="D4" s="6">
-        <f>Data!E4/200*150</f>
-        <v>2047.5</v>
+        <f>Data!E4/3204*150</f>
+        <v>127.80898876404494</v>
       </c>
       <c r="E4" s="6">
-        <f>Data!F4/200*150</f>
-        <v>816.00000000000011</v>
+        <f>Data!F4/3204*150</f>
+        <v>50.936329588014978</v>
       </c>
       <c r="F4" s="6">
-        <f>Data!G4/200*150</f>
-        <v>2225.25</v>
+        <f>Data!G4/3204*150</f>
+        <v>138.90449438202248</v>
       </c>
       <c r="G4" s="6">
-        <f>Data!H4/200*150</f>
-        <v>1863</v>
+        <f>Data!H4/3204*150</f>
+        <v>116.29213483146067</v>
       </c>
       <c r="H4" s="6">
-        <f>Data!I4/200*150</f>
-        <v>948.75</v>
+        <f>Data!I4/3204*150</f>
+        <v>59.222846441947567</v>
       </c>
       <c r="I4" s="6">
-        <f>Data!J4/200*150</f>
-        <v>1548.75</v>
+        <f>Data!J4/3204*150</f>
+        <v>96.676029962546806</v>
       </c>
       <c r="J4" s="6">
-        <f>Data!K4/200*150</f>
-        <v>98.25</v>
+        <f>Data!K4/3204*150</f>
+        <v>6.1329588014981278</v>
       </c>
       <c r="K4" s="6">
-        <f>Data!L4/200*150</f>
-        <v>224.25000000000003</v>
+        <f>Data!L4/3204*150</f>
+        <v>13.99812734082397</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -1606,44 +1606,44 @@
         <v>0.125</v>
       </c>
       <c r="B5" s="6">
-        <f>Data!C5/200*150</f>
-        <v>63.75</v>
+        <f>Data!C5/3204*150</f>
+        <v>3.9794007490636703</v>
       </c>
       <c r="C5" s="6">
-        <f>Data!D5/200*150</f>
-        <v>2253.75</v>
+        <f>Data!D5/3204*150</f>
+        <v>140.68352059925093</v>
       </c>
       <c r="D5" s="6">
-        <f>Data!E5/200*150</f>
-        <v>2196</v>
+        <f>Data!E5/3204*150</f>
+        <v>137.07865168539325</v>
       </c>
       <c r="E5" s="6">
-        <f>Data!F5/200*150</f>
-        <v>833.99999999999989</v>
+        <f>Data!F5/3204*150</f>
+        <v>52.059925093632963</v>
       </c>
       <c r="F5" s="6">
-        <f>Data!G5/200*150</f>
-        <v>2212.5</v>
+        <f>Data!G5/3204*150</f>
+        <v>138.10861423220973</v>
       </c>
       <c r="G5" s="6">
-        <f>Data!H5/200*150</f>
-        <v>1759.5</v>
+        <f>Data!H5/3204*150</f>
+        <v>109.8314606741573</v>
       </c>
       <c r="H5" s="6">
-        <f>Data!I5/200*150</f>
-        <v>864.75</v>
+        <f>Data!I5/3204*150</f>
+        <v>53.979400749063672</v>
       </c>
       <c r="I5" s="6">
-        <f>Data!J5/200*150</f>
-        <v>1533.75</v>
+        <f>Data!J5/3204*150</f>
+        <v>95.739700374531822</v>
       </c>
       <c r="J5" s="6">
-        <f>Data!K5/200*150</f>
-        <v>87</v>
+        <f>Data!K5/3204*150</f>
+        <v>5.4307116104868909</v>
       </c>
       <c r="K5" s="6">
-        <f>Data!L5/200*150</f>
-        <v>303</v>
+        <f>Data!L5/3204*150</f>
+        <v>18.913857677902623</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -1651,44 +1651,44 @@
         <v>0.16666666666666699</v>
       </c>
       <c r="B6" s="6">
-        <f>Data!C6/200*150</f>
-        <v>75</v>
+        <f>Data!C6/3204*150</f>
+        <v>4.6816479400749067</v>
       </c>
       <c r="C6" s="6">
-        <f>Data!D6/200*150</f>
-        <v>2140.5</v>
+        <f>Data!D6/3204*150</f>
+        <v>133.61423220973782</v>
       </c>
       <c r="D6" s="6">
-        <f>Data!E6/200*150</f>
-        <v>2226.75</v>
+        <f>Data!E6/3204*150</f>
+        <v>138.99812734082397</v>
       </c>
       <c r="E6" s="6">
-        <f>Data!F6/200*150</f>
-        <v>776.25</v>
+        <f>Data!F6/3204*150</f>
+        <v>48.455056179775283</v>
       </c>
       <c r="F6" s="6">
-        <f>Data!G6/200*150</f>
-        <v>2234.25</v>
+        <f>Data!G6/3204*150</f>
+        <v>139.46629213483146</v>
       </c>
       <c r="G6" s="6">
-        <f>Data!H6/200*150</f>
-        <v>1612.5</v>
+        <f>Data!H6/3204*150</f>
+        <v>100.65543071161048</v>
       </c>
       <c r="H6" s="6">
-        <f>Data!I6/200*150</f>
-        <v>792</v>
+        <f>Data!I6/3204*150</f>
+        <v>49.438202247191008</v>
       </c>
       <c r="I6" s="6">
-        <f>Data!J6/200*150</f>
-        <v>1445.25</v>
+        <f>Data!J6/3204*150</f>
+        <v>90.215355805243448</v>
       </c>
       <c r="J6" s="6">
-        <f>Data!K6/200*150</f>
-        <v>72.75</v>
+        <f>Data!K6/3204*150</f>
+        <v>4.5411985018726595</v>
       </c>
       <c r="K6" s="6">
-        <f>Data!L6/200*150</f>
-        <v>405.75</v>
+        <f>Data!L6/3204*150</f>
+        <v>25.327715355805243</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -1696,44 +1696,44 @@
         <v>0.20833333333333301</v>
       </c>
       <c r="B7" s="6">
-        <f>Data!C7/200*150</f>
-        <v>105</v>
+        <f>Data!C7/3204*150</f>
+        <v>6.5543071161048694</v>
       </c>
       <c r="C7" s="6">
-        <f>Data!D7/200*150</f>
-        <v>1893.75</v>
+        <f>Data!D7/3204*150</f>
+        <v>118.21161048689139</v>
       </c>
       <c r="D7" s="6">
-        <f>Data!E7/200*150</f>
-        <v>2224.5</v>
+        <f>Data!E7/3204*150</f>
+        <v>138.85767790262173</v>
       </c>
       <c r="E7" s="6">
-        <f>Data!F7/200*150</f>
-        <v>696</v>
+        <f>Data!F7/3204*150</f>
+        <v>43.445692883895127</v>
       </c>
       <c r="F7" s="6">
-        <f>Data!G7/200*150</f>
-        <v>2133</v>
+        <f>Data!G7/3204*150</f>
+        <v>133.14606741573033</v>
       </c>
       <c r="G7" s="6">
-        <f>Data!H7/200*150</f>
-        <v>1422</v>
+        <f>Data!H7/3204*150</f>
+        <v>88.764044943820224</v>
       </c>
       <c r="H7" s="6">
-        <f>Data!I7/200*150</f>
-        <v>722.25000000000011</v>
+        <f>Data!I7/3204*150</f>
+        <v>45.084269662921351</v>
       </c>
       <c r="I7" s="6">
-        <f>Data!J7/200*150</f>
-        <v>1360.5</v>
+        <f>Data!J7/3204*150</f>
+        <v>84.925093632958806</v>
       </c>
       <c r="J7" s="6">
-        <f>Data!K7/200*150</f>
-        <v>48.75</v>
+        <f>Data!K7/3204*150</f>
+        <v>3.0430711610486894</v>
       </c>
       <c r="K7" s="6">
-        <f>Data!L7/200*150</f>
-        <v>443.25</v>
+        <f>Data!L7/3204*150</f>
+        <v>27.668539325842698</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -1741,44 +1741,44 @@
         <v>0.25</v>
       </c>
       <c r="B8" s="6">
-        <f>Data!C8/200*150</f>
-        <v>170.99999999999997</v>
+        <f>Data!C8/3204*150</f>
+        <v>10.674157303370785</v>
       </c>
       <c r="C8" s="6">
-        <f>Data!D8/200*150</f>
-        <v>1474.5</v>
+        <f>Data!D8/3204*150</f>
+        <v>92.041198501872671</v>
       </c>
       <c r="D8" s="6">
-        <f>Data!E8/200*150</f>
-        <v>2215.5</v>
+        <f>Data!E8/3204*150</f>
+        <v>138.29588014981275</v>
       </c>
       <c r="E8" s="6">
-        <f>Data!F8/200*150</f>
-        <v>622.5</v>
+        <f>Data!F8/3204*150</f>
+        <v>38.857677902621724</v>
       </c>
       <c r="F8" s="6">
-        <f>Data!G8/200*150</f>
-        <v>1950</v>
+        <f>Data!G8/3204*150</f>
+        <v>121.72284644194757</v>
       </c>
       <c r="G8" s="6">
-        <f>Data!H8/200*150</f>
-        <v>1225.5</v>
+        <f>Data!H8/3204*150</f>
+        <v>76.49812734082397</v>
       </c>
       <c r="H8" s="6">
-        <f>Data!I8/200*150</f>
-        <v>637.5</v>
+        <f>Data!I8/3204*150</f>
+        <v>39.794007490636702</v>
       </c>
       <c r="I8" s="6">
-        <f>Data!J8/200*150</f>
-        <v>1296</v>
+        <f>Data!J8/3204*150</f>
+        <v>80.898876404494374</v>
       </c>
       <c r="J8" s="6">
-        <f>Data!K8/200*150</f>
-        <v>49.5</v>
+        <f>Data!K8/3204*150</f>
+        <v>3.089887640449438</v>
       </c>
       <c r="K8" s="6">
-        <f>Data!L8/200*150</f>
-        <v>475.5</v>
+        <f>Data!L8/3204*150</f>
+        <v>29.681647940074907</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -1786,44 +1786,44 @@
         <v>0.29166666666666702</v>
       </c>
       <c r="B9" s="6">
-        <f>Data!C9/200*150</f>
-        <v>301.49999999999994</v>
+        <f>Data!C9/3204*150</f>
+        <v>18.820224719101123</v>
       </c>
       <c r="C9" s="6">
-        <f>Data!D9/200*150</f>
-        <v>1087.5</v>
+        <f>Data!D9/3204*150</f>
+        <v>67.883895131086135</v>
       </c>
       <c r="D9" s="6">
-        <f>Data!E9/200*150</f>
-        <v>2144.25</v>
+        <f>Data!E9/3204*150</f>
+        <v>133.84831460674158</v>
       </c>
       <c r="E9" s="6">
-        <f>Data!F9/200*150</f>
-        <v>590.25</v>
+        <f>Data!F9/3204*150</f>
+        <v>36.844569288389515</v>
       </c>
       <c r="F9" s="6">
-        <f>Data!G9/200*150</f>
-        <v>1686.7499999999998</v>
+        <f>Data!G9/3204*150</f>
+        <v>105.29026217228464</v>
       </c>
       <c r="G9" s="6">
-        <f>Data!H9/200*150</f>
-        <v>1050</v>
+        <f>Data!H9/3204*150</f>
+        <v>65.543071161048687</v>
       </c>
       <c r="H9" s="6">
-        <f>Data!I9/200*150</f>
-        <v>625.5</v>
+        <f>Data!I9/3204*150</f>
+        <v>39.044943820224724</v>
       </c>
       <c r="I9" s="6">
-        <f>Data!J9/200*150</f>
-        <v>1112.25</v>
+        <f>Data!J9/3204*150</f>
+        <v>69.428838951310865</v>
       </c>
       <c r="J9" s="6">
-        <f>Data!K9/200*150</f>
-        <v>56.25</v>
+        <f>Data!K9/3204*150</f>
+        <v>3.51123595505618</v>
       </c>
       <c r="K9" s="6">
-        <f>Data!L9/200*150</f>
-        <v>354.75000000000006</v>
+        <f>Data!L9/3204*150</f>
+        <v>22.144194756554306</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -1831,44 +1831,44 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="B10" s="6">
-        <f>Data!C10/200*150</f>
-        <v>423.75</v>
+        <f>Data!C10/3204*150</f>
+        <v>26.45131086142322</v>
       </c>
       <c r="C10" s="6">
-        <f>Data!D10/200*150</f>
-        <v>1034.25</v>
+        <f>Data!D10/3204*150</f>
+        <v>64.559925093632955</v>
       </c>
       <c r="D10" s="6">
-        <f>Data!E10/200*150</f>
-        <v>2038.5</v>
+        <f>Data!E10/3204*150</f>
+        <v>127.24719101123596</v>
       </c>
       <c r="E10" s="6">
-        <f>Data!F10/200*150</f>
-        <v>501.75000000000006</v>
+        <f>Data!F10/3204*150</f>
+        <v>31.320224719101127</v>
       </c>
       <c r="F10" s="6">
-        <f>Data!G10/200*150</f>
-        <v>1420.5</v>
+        <f>Data!G10/3204*150</f>
+        <v>88.670411985018731</v>
       </c>
       <c r="G10" s="6">
-        <f>Data!H10/200*150</f>
-        <v>852.74999999999989</v>
+        <f>Data!H10/3204*150</f>
+        <v>53.230337078651679</v>
       </c>
       <c r="H10" s="6">
-        <f>Data!I10/200*150</f>
-        <v>582</v>
+        <f>Data!I10/3204*150</f>
+        <v>36.329588014981276</v>
       </c>
       <c r="I10" s="6">
-        <f>Data!J10/200*150</f>
-        <v>1003.5000000000001</v>
+        <f>Data!J10/3204*150</f>
+        <v>62.640449438202253</v>
       </c>
       <c r="J10" s="6">
-        <f>Data!K10/200*150</f>
-        <v>61.499999999999993</v>
+        <f>Data!K10/3204*150</f>
+        <v>3.838951310861423</v>
       </c>
       <c r="K10" s="6">
-        <f>Data!L10/200*150</f>
-        <v>225</v>
+        <f>Data!L10/3204*150</f>
+        <v>14.04494382022472</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -1876,44 +1876,44 @@
         <v>0.375</v>
       </c>
       <c r="B11" s="6">
-        <f>Data!C11/200*150</f>
-        <v>421.5</v>
+        <f>Data!C11/3204*150</f>
+        <v>26.310861423220974</v>
       </c>
       <c r="C11" s="6">
-        <f>Data!D11/200*150</f>
-        <v>1110.75</v>
+        <f>Data!D11/3204*150</f>
+        <v>69.335205992509373</v>
       </c>
       <c r="D11" s="6">
-        <f>Data!E11/200*150</f>
-        <v>1941</v>
+        <f>Data!E11/3204*150</f>
+        <v>121.16104868913857</v>
       </c>
       <c r="E11" s="6">
-        <f>Data!F11/200*150</f>
-        <v>467.25000000000006</v>
+        <f>Data!F11/3204*150</f>
+        <v>29.166666666666668</v>
       </c>
       <c r="F11" s="6">
-        <f>Data!G11/200*150</f>
-        <v>1292.25</v>
+        <f>Data!G11/3204*150</f>
+        <v>80.664794007490642</v>
       </c>
       <c r="G11" s="6">
-        <f>Data!H11/200*150</f>
-        <v>924</v>
+        <f>Data!H11/3204*150</f>
+        <v>57.677902621722843</v>
       </c>
       <c r="H11" s="6">
-        <f>Data!I11/200*150</f>
-        <v>543.75</v>
+        <f>Data!I11/3204*150</f>
+        <v>33.941947565543067</v>
       </c>
       <c r="I11" s="6">
-        <f>Data!J11/200*150</f>
-        <v>918</v>
+        <f>Data!J11/3204*150</f>
+        <v>57.303370786516851</v>
       </c>
       <c r="J11" s="6">
-        <f>Data!K11/200*150</f>
-        <v>60.750000000000007</v>
+        <f>Data!K11/3204*150</f>
+        <v>3.792134831460674</v>
       </c>
       <c r="K11" s="6">
-        <f>Data!L11/200*150</f>
-        <v>323.24999999999994</v>
+        <f>Data!L11/3204*150</f>
+        <v>20.177902621722847</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -1921,44 +1921,44 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="B12" s="6">
-        <f>Data!C12/200*150</f>
-        <v>303.75</v>
+        <f>Data!C12/3204*150</f>
+        <v>18.960674157303373</v>
       </c>
       <c r="C12" s="6">
-        <f>Data!D12/200*150</f>
-        <v>918</v>
+        <f>Data!D12/3204*150</f>
+        <v>57.303370786516851</v>
       </c>
       <c r="D12" s="6">
-        <f>Data!E12/200*150</f>
-        <v>1870.5</v>
+        <f>Data!E12/3204*150</f>
+        <v>116.76029962546816</v>
       </c>
       <c r="E12" s="6">
-        <f>Data!F12/200*150</f>
-        <v>519.75</v>
+        <f>Data!F12/3204*150</f>
+        <v>32.443820224719104</v>
       </c>
       <c r="F12" s="6">
-        <f>Data!G12/200*150</f>
-        <v>1245.75</v>
+        <f>Data!G12/3204*150</f>
+        <v>77.762172284644194</v>
       </c>
       <c r="G12" s="6">
-        <f>Data!H12/200*150</f>
-        <v>1042.5</v>
+        <f>Data!H12/3204*150</f>
+        <v>65.074906367041194</v>
       </c>
       <c r="H12" s="6">
-        <f>Data!I12/200*150</f>
-        <v>457.5</v>
+        <f>Data!I12/3204*150</f>
+        <v>28.558052434456929</v>
       </c>
       <c r="I12" s="6">
-        <f>Data!J12/200*150</f>
-        <v>927</v>
+        <f>Data!J12/3204*150</f>
+        <v>57.865168539325843</v>
       </c>
       <c r="J12" s="6">
-        <f>Data!K12/200*150</f>
-        <v>46.5</v>
+        <f>Data!K12/3204*150</f>
+        <v>2.9026217228464417</v>
       </c>
       <c r="K12" s="6">
-        <f>Data!L12/200*150</f>
-        <v>519</v>
+        <f>Data!L12/3204*150</f>
+        <v>32.397003745318351</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -1966,44 +1966,44 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="B13" s="6">
-        <f>Data!C13/200*150</f>
-        <v>261.75</v>
+        <f>Data!C13/3204*150</f>
+        <v>16.338951310861425</v>
       </c>
       <c r="C13" s="6">
-        <f>Data!D13/200*150</f>
-        <v>837</v>
+        <f>Data!D13/3204*150</f>
+        <v>52.247191011235955</v>
       </c>
       <c r="D13" s="6">
-        <f>Data!E13/200*150</f>
-        <v>1860</v>
+        <f>Data!E13/3204*150</f>
+        <v>116.10486891385767</v>
       </c>
       <c r="E13" s="6">
-        <f>Data!F13/200*150</f>
-        <v>637.5</v>
+        <f>Data!F13/3204*150</f>
+        <v>39.794007490636702</v>
       </c>
       <c r="F13" s="6">
-        <f>Data!G13/200*150</f>
-        <v>1272</v>
+        <f>Data!G13/3204*150</f>
+        <v>79.400749063670403</v>
       </c>
       <c r="G13" s="6">
-        <f>Data!H13/200*150</f>
-        <v>1088.25</v>
+        <f>Data!H13/3204*150</f>
+        <v>67.930711610486895</v>
       </c>
       <c r="H13" s="6">
-        <f>Data!I13/200*150</f>
-        <v>341.25</v>
+        <f>Data!I13/3204*150</f>
+        <v>21.301498127340825</v>
       </c>
       <c r="I13" s="6">
-        <f>Data!J13/200*150</f>
-        <v>899.25</v>
+        <f>Data!J13/3204*150</f>
+        <v>56.132958801498134</v>
       </c>
       <c r="J13" s="6">
-        <f>Data!K13/200*150</f>
-        <v>65.25</v>
+        <f>Data!K13/3204*150</f>
+        <v>4.0730337078651688</v>
       </c>
       <c r="K13" s="6">
-        <f>Data!L13/200*150</f>
-        <v>705</v>
+        <f>Data!L13/3204*150</f>
+        <v>44.007490636704119</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -2011,44 +2011,44 @@
         <v>0.5</v>
       </c>
       <c r="B14" s="6">
-        <f>Data!C14/200*150</f>
-        <v>289.5</v>
+        <f>Data!C14/3204*150</f>
+        <v>18.071161048689138</v>
       </c>
       <c r="C14" s="6">
-        <f>Data!D14/200*150</f>
-        <v>775.5</v>
+        <f>Data!D14/3204*150</f>
+        <v>48.408239700374537</v>
       </c>
       <c r="D14" s="6">
-        <f>Data!E14/200*150</f>
-        <v>1865.25</v>
+        <f>Data!E14/3204*150</f>
+        <v>116.43258426966291</v>
       </c>
       <c r="E14" s="6">
-        <f>Data!F14/200*150</f>
-        <v>665.24999999999989</v>
+        <f>Data!F14/3204*150</f>
+        <v>41.526217228464418</v>
       </c>
       <c r="F14" s="6">
-        <f>Data!G14/200*150</f>
-        <v>1435.5</v>
+        <f>Data!G14/3204*150</f>
+        <v>89.606741573033716</v>
       </c>
       <c r="G14" s="6">
-        <f>Data!H14/200*150</f>
-        <v>1162.5</v>
+        <f>Data!H14/3204*150</f>
+        <v>72.565543071161045</v>
       </c>
       <c r="H14" s="6">
-        <f>Data!I14/200*150</f>
-        <v>305.25</v>
+        <f>Data!I14/3204*150</f>
+        <v>19.054307116104869</v>
       </c>
       <c r="I14" s="6">
-        <f>Data!J14/200*150</f>
-        <v>877.5</v>
+        <f>Data!J14/3204*150</f>
+        <v>54.775280898876403</v>
       </c>
       <c r="J14" s="6">
-        <f>Data!K14/200*150</f>
-        <v>96.75</v>
+        <f>Data!K14/3204*150</f>
+        <v>6.0393258426966296</v>
       </c>
       <c r="K14" s="6">
-        <f>Data!L14/200*150</f>
-        <v>825.75</v>
+        <f>Data!L14/3204*150</f>
+        <v>51.544943820224717</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -2056,44 +2056,44 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B15" s="6">
-        <f>Data!C15/200*150</f>
-        <v>299.25</v>
+        <f>Data!C15/3204*150</f>
+        <v>18.679775280898877</v>
       </c>
       <c r="C15" s="6">
-        <f>Data!D15/200*150</f>
-        <v>825</v>
+        <f>Data!D15/3204*150</f>
+        <v>51.49812734082397</v>
       </c>
       <c r="D15" s="6">
-        <f>Data!E15/200*150</f>
-        <v>1899.7499999999998</v>
+        <f>Data!E15/3204*150</f>
+        <v>118.58614232209737</v>
       </c>
       <c r="E15" s="6">
-        <f>Data!F15/200*150</f>
-        <v>628.50000000000011</v>
+        <f>Data!F15/3204*150</f>
+        <v>39.232209737827709</v>
       </c>
       <c r="F15" s="6">
-        <f>Data!G15/200*150</f>
-        <v>1695</v>
+        <f>Data!G15/3204*150</f>
+        <v>105.80524344569288</v>
       </c>
       <c r="G15" s="6">
-        <f>Data!H15/200*150</f>
-        <v>1155</v>
+        <f>Data!H15/3204*150</f>
+        <v>72.097378277153553</v>
       </c>
       <c r="H15" s="6">
-        <f>Data!I15/200*150</f>
-        <v>305.25</v>
+        <f>Data!I15/3204*150</f>
+        <v>19.054307116104869</v>
       </c>
       <c r="I15" s="6">
-        <f>Data!J15/200*150</f>
-        <v>888.75</v>
+        <f>Data!J15/3204*150</f>
+        <v>55.477528089887642</v>
       </c>
       <c r="J15" s="6">
-        <f>Data!K15/200*150</f>
-        <v>127.5</v>
+        <f>Data!K15/3204*150</f>
+        <v>7.9588014981273405</v>
       </c>
       <c r="K15" s="6">
-        <f>Data!L15/200*150</f>
-        <v>844.5</v>
+        <f>Data!L15/3204*150</f>
+        <v>52.715355805243448</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -2101,44 +2101,44 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="B16" s="6">
-        <f>Data!C16/200*150</f>
-        <v>307.5</v>
+        <f>Data!C16/3204*150</f>
+        <v>19.194756554307116</v>
       </c>
       <c r="C16" s="6">
-        <f>Data!D16/200*150</f>
-        <v>1060.5</v>
+        <f>Data!D16/3204*150</f>
+        <v>66.198501872659179</v>
       </c>
       <c r="D16" s="6">
-        <f>Data!E16/200*150</f>
-        <v>1905.75</v>
+        <f>Data!E16/3204*150</f>
+        <v>118.96067415730337</v>
       </c>
       <c r="E16" s="6">
-        <f>Data!F16/200*150</f>
-        <v>624.75</v>
+        <f>Data!F16/3204*150</f>
+        <v>38.99812734082397</v>
       </c>
       <c r="F16" s="6">
-        <f>Data!G16/200*150</f>
-        <v>1830</v>
+        <f>Data!G16/3204*150</f>
+        <v>114.23220973782772</v>
       </c>
       <c r="G16" s="6">
-        <f>Data!H16/200*150</f>
-        <v>1149</v>
+        <f>Data!H16/3204*150</f>
+        <v>71.722846441947567</v>
       </c>
       <c r="H16" s="6">
-        <f>Data!I16/200*150</f>
-        <v>318.75</v>
+        <f>Data!I16/3204*150</f>
+        <v>19.897003745318351</v>
       </c>
       <c r="I16" s="6">
-        <f>Data!J16/200*150</f>
-        <v>1035.75</v>
+        <f>Data!J16/3204*150</f>
+        <v>64.653558052434462</v>
       </c>
       <c r="J16" s="6">
-        <f>Data!K16/200*150</f>
-        <v>169.49999999999997</v>
+        <f>Data!K16/3204*150</f>
+        <v>10.580524344569289</v>
       </c>
       <c r="K16" s="6">
-        <f>Data!L16/200*150</f>
-        <v>859.50000000000011</v>
+        <f>Data!L16/3204*150</f>
+        <v>53.651685393258425</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -2146,44 +2146,44 @@
         <v>0.625</v>
       </c>
       <c r="B17" s="6">
-        <f>Data!C17/200*150</f>
-        <v>309.75</v>
+        <f>Data!C17/3204*150</f>
+        <v>19.335205992509366</v>
       </c>
       <c r="C17" s="6">
-        <f>Data!D17/200*150</f>
-        <v>1189.5</v>
+        <f>Data!D17/3204*150</f>
+        <v>74.250936329588015</v>
       </c>
       <c r="D17" s="6">
-        <f>Data!E17/200*150</f>
-        <v>1953</v>
+        <f>Data!E17/3204*150</f>
+        <v>121.91011235955057</v>
       </c>
       <c r="E17" s="6">
-        <f>Data!F17/200*150</f>
-        <v>753.75</v>
+        <f>Data!F17/3204*150</f>
+        <v>47.050561797752806</v>
       </c>
       <c r="F17" s="6">
-        <f>Data!G17/200*150</f>
-        <v>1897.5</v>
+        <f>Data!G17/3204*150</f>
+        <v>118.44569288389513</v>
       </c>
       <c r="G17" s="6">
-        <f>Data!H17/200*150</f>
-        <v>1114.5</v>
+        <f>Data!H17/3204*150</f>
+        <v>69.569288389513119</v>
       </c>
       <c r="H17" s="6">
-        <f>Data!I17/200*150</f>
-        <v>348</v>
+        <f>Data!I17/3204*150</f>
+        <v>21.722846441947564</v>
       </c>
       <c r="I17" s="6">
-        <f>Data!J17/200*150</f>
-        <v>1131.75</v>
+        <f>Data!J17/3204*150</f>
+        <v>70.646067415730329</v>
       </c>
       <c r="J17" s="6">
-        <f>Data!K17/200*150</f>
-        <v>247.5</v>
+        <f>Data!K17/3204*150</f>
+        <v>15.449438202247192</v>
       </c>
       <c r="K17" s="6">
-        <f>Data!L17/200*150</f>
-        <v>837</v>
+        <f>Data!L17/3204*150</f>
+        <v>52.247191011235955</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -2191,44 +2191,44 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="B18" s="6">
-        <f>Data!C18/200*150</f>
-        <v>348.75</v>
+        <f>Data!C18/3204*150</f>
+        <v>21.769662921348313</v>
       </c>
       <c r="C18" s="6">
-        <f>Data!D18/200*150</f>
-        <v>1314</v>
+        <f>Data!D18/3204*150</f>
+        <v>82.022471910112358</v>
       </c>
       <c r="D18" s="6">
-        <f>Data!E18/200*150</f>
-        <v>1939.5</v>
+        <f>Data!E18/3204*150</f>
+        <v>121.06741573033707</v>
       </c>
       <c r="E18" s="6">
-        <f>Data!F18/200*150</f>
-        <v>827.99999999999989</v>
+        <f>Data!F18/3204*150</f>
+        <v>51.68539325842697</v>
       </c>
       <c r="F18" s="6">
-        <f>Data!G18/200*150</f>
-        <v>1866.75</v>
+        <f>Data!G18/3204*150</f>
+        <v>116.52621722846442</v>
       </c>
       <c r="G18" s="6">
-        <f>Data!H18/200*150</f>
-        <v>960</v>
+        <f>Data!H18/3204*150</f>
+        <v>59.925093632958799</v>
       </c>
       <c r="H18" s="6">
-        <f>Data!I18/200*150</f>
-        <v>385.5</v>
+        <f>Data!I18/3204*150</f>
+        <v>24.063670411985019</v>
       </c>
       <c r="I18" s="6">
-        <f>Data!J18/200*150</f>
-        <v>1260.75</v>
+        <f>Data!J18/3204*150</f>
+        <v>78.698501872659179</v>
       </c>
       <c r="J18" s="6">
-        <f>Data!K18/200*150</f>
-        <v>311.25</v>
+        <f>Data!K18/3204*150</f>
+        <v>19.428838951310862</v>
       </c>
       <c r="K18" s="6">
-        <f>Data!L18/200*150</f>
-        <v>827.25</v>
+        <f>Data!L18/3204*150</f>
+        <v>51.638576779026216</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -2236,44 +2236,44 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="B19" s="6">
-        <f>Data!C19/200*150</f>
-        <v>520.5</v>
+        <f>Data!C19/3204*150</f>
+        <v>32.490636704119851</v>
       </c>
       <c r="C19" s="6">
-        <f>Data!D19/200*150</f>
-        <v>1427.25</v>
+        <f>Data!D19/3204*150</f>
+        <v>89.091760299625463</v>
       </c>
       <c r="D19" s="6">
-        <f>Data!E19/200*150</f>
-        <v>1939.5</v>
+        <f>Data!E19/3204*150</f>
+        <v>121.06741573033707</v>
       </c>
       <c r="E19" s="6">
-        <f>Data!F19/200*150</f>
-        <v>792</v>
+        <f>Data!F19/3204*150</f>
+        <v>49.438202247191008</v>
       </c>
       <c r="F19" s="6">
-        <f>Data!G19/200*150</f>
-        <v>1697.25</v>
+        <f>Data!G19/3204*150</f>
+        <v>105.94569288389513</v>
       </c>
       <c r="G19" s="6">
-        <f>Data!H19/200*150</f>
-        <v>867</v>
+        <f>Data!H19/3204*150</f>
+        <v>54.119850187265918</v>
       </c>
       <c r="H19" s="6">
-        <f>Data!I19/200*150</f>
-        <v>578.25</v>
+        <f>Data!I19/3204*150</f>
+        <v>36.09550561797753</v>
       </c>
       <c r="I19" s="6">
-        <f>Data!J19/200*150</f>
-        <v>1346.25</v>
+        <f>Data!J19/3204*150</f>
+        <v>84.035580524344567</v>
       </c>
       <c r="J19" s="6">
-        <f>Data!K19/200*150</f>
-        <v>384.75</v>
+        <f>Data!K19/3204*150</f>
+        <v>24.016853932584269</v>
       </c>
       <c r="K19" s="6">
-        <f>Data!L19/200*150</f>
-        <v>830.25</v>
+        <f>Data!L19/3204*150</f>
+        <v>51.825842696629216</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -2281,44 +2281,44 @@
         <v>0.75</v>
       </c>
       <c r="B20" s="6">
-        <f>Data!C20/200*150</f>
-        <v>863.25</v>
+        <f>Data!C20/3204*150</f>
+        <v>53.885767790262172</v>
       </c>
       <c r="C20" s="6">
-        <f>Data!D20/200*150</f>
-        <v>1539</v>
+        <f>Data!D20/3204*150</f>
+        <v>96.067415730337075</v>
       </c>
       <c r="D20" s="6">
-        <f>Data!E20/200*150</f>
-        <v>1944.0000000000002</v>
+        <f>Data!E20/3204*150</f>
+        <v>121.34831460674157</v>
       </c>
       <c r="E20" s="6">
-        <f>Data!F20/200*150</f>
-        <v>750.75</v>
+        <f>Data!F20/3204*150</f>
+        <v>46.863295880149813</v>
       </c>
       <c r="F20" s="6">
-        <f>Data!G20/200*150</f>
-        <v>1482.75</v>
+        <f>Data!G20/3204*150</f>
+        <v>92.556179775280896</v>
       </c>
       <c r="G20" s="6">
-        <f>Data!H20/200*150</f>
-        <v>737.25</v>
+        <f>Data!H20/3204*150</f>
+        <v>46.020599250936336</v>
       </c>
       <c r="H20" s="6">
-        <f>Data!I20/200*150</f>
-        <v>852</v>
+        <f>Data!I20/3204*150</f>
+        <v>53.183520599250933</v>
       </c>
       <c r="I20" s="6">
-        <f>Data!J20/200*150</f>
-        <v>1418.25</v>
+        <f>Data!J20/3204*150</f>
+        <v>88.529962546816492</v>
       </c>
       <c r="J20" s="6">
-        <f>Data!K20/200*150</f>
-        <v>561</v>
+        <f>Data!K20/3204*150</f>
+        <v>35.018726591760299</v>
       </c>
       <c r="K20" s="6">
-        <f>Data!L20/200*150</f>
-        <v>807</v>
+        <f>Data!L20/3204*150</f>
+        <v>50.374531835205993</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -2326,44 +2326,44 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="B21" s="6">
-        <f>Data!C21/200*150</f>
-        <v>1180.5</v>
+        <f>Data!C21/3204*150</f>
+        <v>73.68913857677903</v>
       </c>
       <c r="C21" s="6">
-        <f>Data!D21/200*150</f>
-        <v>1613.2500000000002</v>
+        <f>Data!D21/3204*150</f>
+        <v>100.70224719101124</v>
       </c>
       <c r="D21" s="6">
-        <f>Data!E21/200*150</f>
-        <v>1938.75</v>
+        <f>Data!E21/3204*150</f>
+        <v>121.02059925093633</v>
       </c>
       <c r="E21" s="6">
-        <f>Data!F21/200*150</f>
-        <v>711</v>
+        <f>Data!F21/3204*150</f>
+        <v>44.382022471910112</v>
       </c>
       <c r="F21" s="6">
-        <f>Data!G21/200*150</f>
-        <v>1377.75</v>
+        <f>Data!G21/3204*150</f>
+        <v>86.00187265917603</v>
       </c>
       <c r="G21" s="6">
-        <f>Data!H21/200*150</f>
-        <v>636.75</v>
+        <f>Data!H21/3204*150</f>
+        <v>39.747191011235955</v>
       </c>
       <c r="H21" s="6">
-        <f>Data!I21/200*150</f>
-        <v>1184.25</v>
+        <f>Data!I21/3204*150</f>
+        <v>73.923220973782776</v>
       </c>
       <c r="I21" s="6">
-        <f>Data!J21/200*150</f>
-        <v>1362</v>
+        <f>Data!J21/3204*150</f>
+        <v>85.018726591760313</v>
       </c>
       <c r="J21" s="6">
-        <f>Data!K21/200*150</f>
-        <v>858</v>
+        <f>Data!K21/3204*150</f>
+        <v>53.558052434456926</v>
       </c>
       <c r="K21" s="6">
-        <f>Data!L21/200*150</f>
-        <v>784.50000000000011</v>
+        <f>Data!L21/3204*150</f>
+        <v>48.970037453183522</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -2371,44 +2371,44 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="B22" s="6">
-        <f>Data!C22/200*150</f>
-        <v>1238.2500000000002</v>
+        <f>Data!C22/3204*150</f>
+        <v>77.294007490636702</v>
       </c>
       <c r="C22" s="6">
-        <f>Data!D22/200*150</f>
-        <v>1817.9999999999998</v>
+        <f>Data!D22/3204*150</f>
+        <v>113.48314606741573</v>
       </c>
       <c r="D22" s="6">
-        <f>Data!E22/200*150</f>
-        <v>1965</v>
+        <f>Data!E22/3204*150</f>
+        <v>122.65917602996255</v>
       </c>
       <c r="E22" s="6">
-        <f>Data!F22/200*150</f>
-        <v>656.25</v>
+        <f>Data!F22/3204*150</f>
+        <v>40.964419475655433</v>
       </c>
       <c r="F22" s="6">
-        <f>Data!G22/200*150</f>
-        <v>1440.75</v>
+        <f>Data!G22/3204*150</f>
+        <v>89.934456928838941</v>
       </c>
       <c r="G22" s="6">
-        <f>Data!H22/200*150</f>
-        <v>578.25</v>
+        <f>Data!H22/3204*150</f>
+        <v>36.09550561797753</v>
       </c>
       <c r="H22" s="6">
-        <f>Data!I22/200*150</f>
-        <v>1443.75</v>
+        <f>Data!I22/3204*150</f>
+        <v>90.121722846441941</v>
       </c>
       <c r="I22" s="6">
-        <f>Data!J22/200*150</f>
-        <v>1413</v>
+        <f>Data!J22/3204*150</f>
+        <v>88.202247191011239</v>
       </c>
       <c r="J22" s="6">
-        <f>Data!K22/200*150</f>
-        <v>1173</v>
+        <f>Data!K22/3204*150</f>
+        <v>73.220973782771537</v>
       </c>
       <c r="K22" s="6">
-        <f>Data!L22/200*150</f>
-        <v>816.00000000000011</v>
+        <f>Data!L22/3204*150</f>
+        <v>50.936329588014978</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -2416,44 +2416,44 @@
         <v>0.875</v>
       </c>
       <c r="B23" s="6">
-        <f>Data!C23/200*150</f>
-        <v>1237.5</v>
+        <f>Data!C23/3204*150</f>
+        <v>77.247191011235955</v>
       </c>
       <c r="C23" s="6">
-        <f>Data!D23/200*150</f>
-        <v>2001.75</v>
+        <f>Data!D23/3204*150</f>
+        <v>124.95318352059925</v>
       </c>
       <c r="D23" s="6">
-        <f>Data!E23/200*150</f>
-        <v>1953.75</v>
+        <f>Data!E23/3204*150</f>
+        <v>121.95692883895131</v>
       </c>
       <c r="E23" s="6">
-        <f>Data!F23/200*150</f>
-        <v>630</v>
+        <f>Data!F23/3204*150</f>
+        <v>39.325842696629209</v>
       </c>
       <c r="F23" s="6">
-        <f>Data!G23/200*150</f>
-        <v>1633.5</v>
+        <f>Data!G23/3204*150</f>
+        <v>101.96629213483146</v>
       </c>
       <c r="G23" s="6">
-        <f>Data!H23/200*150</f>
-        <v>570</v>
+        <f>Data!H23/3204*150</f>
+        <v>35.580524344569291</v>
       </c>
       <c r="H23" s="6">
-        <f>Data!I23/200*150</f>
-        <v>1542</v>
+        <f>Data!I23/3204*150</f>
+        <v>96.254681647940075</v>
       </c>
       <c r="I23" s="6">
-        <f>Data!J23/200*150</f>
-        <v>1389.75</v>
+        <f>Data!J23/3204*150</f>
+        <v>86.750936329588015</v>
       </c>
       <c r="J23" s="6">
-        <f>Data!K23/200*150</f>
-        <v>1370.25</v>
+        <f>Data!K23/3204*150</f>
+        <v>85.533707865168537</v>
       </c>
       <c r="K23" s="6">
-        <f>Data!L23/200*150</f>
-        <v>957</v>
+        <f>Data!L23/3204*150</f>
+        <v>59.737827715355799</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -2461,44 +2461,44 @@
         <v>0.91666666666666696</v>
       </c>
       <c r="B24" s="6">
-        <f>Data!C24/200*150</f>
-        <v>1227.75</v>
+        <f>Data!C24/3204*150</f>
+        <v>76.638576779026209</v>
       </c>
       <c r="C24" s="6">
-        <f>Data!D24/200*150</f>
-        <v>2037</v>
+        <f>Data!D24/3204*150</f>
+        <v>127.15355805243445</v>
       </c>
       <c r="D24" s="6">
-        <f>Data!E24/200*150</f>
-        <v>1882.5</v>
+        <f>Data!E24/3204*150</f>
+        <v>117.50936329588015</v>
       </c>
       <c r="E24" s="6">
-        <f>Data!F24/200*150</f>
-        <v>545.25</v>
+        <f>Data!F24/3204*150</f>
+        <v>34.035580524344567</v>
       </c>
       <c r="F24" s="6">
-        <f>Data!G24/200*150</f>
-        <v>1740.75</v>
+        <f>Data!G24/3204*150</f>
+        <v>108.66104868913858</v>
       </c>
       <c r="G24" s="6">
-        <f>Data!H24/200*150</f>
-        <v>633.75</v>
+        <f>Data!H24/3204*150</f>
+        <v>39.559925093632955</v>
       </c>
       <c r="H24" s="6">
-        <f>Data!I24/200*150</f>
-        <v>1553.25</v>
+        <f>Data!I24/3204*150</f>
+        <v>96.956928838951313</v>
       </c>
       <c r="I24" s="6">
-        <f>Data!J24/200*150</f>
-        <v>1374</v>
+        <f>Data!J24/3204*150</f>
+        <v>85.767790262172284</v>
       </c>
       <c r="J24" s="6">
-        <f>Data!K24/200*150</f>
-        <v>1494.0000000000002</v>
+        <f>Data!K24/3204*150</f>
+        <v>93.258426966292134</v>
       </c>
       <c r="K24" s="6">
-        <f>Data!L24/200*150</f>
-        <v>1196.25</v>
+        <f>Data!L24/3204*150</f>
+        <v>74.672284644194761</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -2506,44 +2506,44 @@
         <v>0.95833333333333304</v>
       </c>
       <c r="B25" s="6">
-        <f>Data!C25/200*150</f>
-        <v>1189.5</v>
+        <f>Data!C25/3204*150</f>
+        <v>74.250936329588015</v>
       </c>
       <c r="C25" s="6">
-        <f>Data!D25/200*150</f>
-        <v>2030.9999999999998</v>
+        <f>Data!D25/3204*150</f>
+        <v>126.77902621722846</v>
       </c>
       <c r="D25" s="6">
-        <f>Data!E25/200*150</f>
-        <v>1831.5000000000002</v>
+        <f>Data!E25/3204*150</f>
+        <v>114.32584269662921</v>
       </c>
       <c r="E25" s="6">
-        <f>Data!F25/200*150</f>
-        <v>540.75</v>
+        <f>Data!F25/3204*150</f>
+        <v>33.754681647940075</v>
       </c>
       <c r="F25" s="6">
-        <f>Data!G25/200*150</f>
-        <v>1688.2500000000002</v>
+        <f>Data!G25/3204*150</f>
+        <v>105.38389513108613</v>
       </c>
       <c r="G25" s="6">
-        <f>Data!H25/200*150</f>
-        <v>832.5</v>
+        <f>Data!H25/3204*150</f>
+        <v>51.966292134831463</v>
       </c>
       <c r="H25" s="6">
-        <f>Data!I25/200*150</f>
-        <v>1514.25</v>
+        <f>Data!I25/3204*150</f>
+        <v>94.522471910112372</v>
       </c>
       <c r="I25" s="6">
-        <f>Data!J25/200*150</f>
-        <v>1297.5</v>
+        <f>Data!J25/3204*150</f>
+        <v>80.992509363295881</v>
       </c>
       <c r="J25" s="6">
-        <f>Data!K25/200*150</f>
-        <v>1556.25</v>
+        <f>Data!K25/3204*150</f>
+        <v>97.144194756554299</v>
       </c>
       <c r="K25" s="6">
-        <f>Data!L25/200*150</f>
-        <v>1302.75</v>
+        <f>Data!L25/3204*150</f>
+        <v>81.320224719101134</v>
       </c>
     </row>
   </sheetData>

--- a/Data/WindProduction.xlsx
+++ b/Data/WindProduction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s213518_dtu_dk/Documents/23 Spring/46755 Renewables in Electricity Markets/Assignment 2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="11_2A96071C709FA31C1226FFF8A738A5939BC0FE6A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE953E98-7316-4B6B-B6AE-8641B4E62FE8}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="11_2A96071C709FA31C1226FFF8A738A5939BC0FE6A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{110B0C34-7F7D-4622-81B5-448D00EED550}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30510" yWindow="2580" windowWidth="21600" windowHeight="11175" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Alkuaika UTC+02:00</t>
   </si>
@@ -65,6 +65,18 @@
   <si>
     <t>25/07/2022</t>
   </si>
+  <si>
+    <t>Total Finnish Wind Capacity 2022</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>https://tuulivoimayhdistys.fi/en/ajankohtaista/press-releases/finnish-wind-power-year-2022-wind-power-capacity-increased-by-75-and-brought-more-than-2-9-billion-investments-to-finland#:~:text=By%20the%20end%20of%202022,wind%20power%20is%20domestically%20owned.</t>
+  </si>
 </sst>
 </file>
 
@@ -75,7 +87,7 @@
     <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -92,6 +104,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,10 +131,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -130,8 +151,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1419,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC6EAA4-9164-47C2-A2DF-99C653857F1A}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1431,7 +1454,7 @@
     <col min="2" max="11" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1465,680 +1488,696 @@
       <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>0</v>
       </c>
       <c r="B2" s="6">
-        <f>Data!C2/3204*150</f>
-        <v>5.1498127340823974</v>
+        <f>Data!C2/$M$2*150</f>
+        <v>5.0816137973514017</v>
       </c>
       <c r="C2" s="6">
-        <f>Data!D2/3204*150</f>
-        <v>148.36142322097379</v>
+        <f>Data!D2/$M$2*150</f>
+        <v>146.39667385278719</v>
       </c>
       <c r="D2" s="6">
-        <f>Data!E2/3204*150</f>
-        <v>120.64606741573034</v>
+        <f>Data!E2/$M$2*150</f>
+        <v>119.04835232522328</v>
       </c>
       <c r="E2" s="6">
-        <f>Data!F2/3204*150</f>
-        <v>51.919475655430716</v>
+        <f>Data!F2/$M$2*150</f>
+        <v>51.231906375115486</v>
       </c>
       <c r="F2" s="6">
-        <f>Data!G2/3204*150</f>
-        <v>138.99812734082397</v>
+        <f>Data!G2/$M$2*150</f>
+        <v>137.157376039421</v>
       </c>
       <c r="G2" s="6">
-        <f>Data!H2/3204*150</f>
-        <v>116.05805243445693</v>
+        <f>Data!H2/$M$2*150</f>
+        <v>114.52109639667385</v>
       </c>
       <c r="H2" s="6">
-        <f>Data!I2/3204*150</f>
-        <v>67.088014981273403</v>
+        <f>Data!I2/$M$2*150</f>
+        <v>66.199568832768705</v>
       </c>
       <c r="I2" s="6">
-        <f>Data!J2/3204*150</f>
-        <v>104.77528089887642</v>
+        <f>Data!J2/$M$2*150</f>
+        <v>103.3877425315676</v>
       </c>
       <c r="J2" s="6">
-        <f>Data!K2/3204*150</f>
-        <v>12.5</v>
+        <f>Data!K2/$M$2*150</f>
+        <v>12.334462580843855</v>
       </c>
       <c r="K2" s="6">
-        <f>Data!L2/3204*150</f>
-        <v>13.108614232209739</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <f>Data!L2/$M$2*150</f>
+        <v>12.935016938712659</v>
+      </c>
+      <c r="M2">
+        <f>5677-2430</f>
+        <v>3247</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="B3" s="6">
-        <f>Data!C3/3204*150</f>
-        <v>5.571161048689139</v>
+        <f>Data!C3/$M$2*150</f>
+        <v>5.4973821989528791</v>
       </c>
       <c r="C3" s="6">
-        <f>Data!D3/3204*150</f>
-        <v>147.65917602996254</v>
+        <f>Data!D3/$M$2*150</f>
+        <v>145.70372651678471</v>
       </c>
       <c r="D3" s="6">
-        <f>Data!E3/3204*150</f>
-        <v>121.95692883895131</v>
+        <f>Data!E3/$M$2*150</f>
+        <v>120.34185401909455</v>
       </c>
       <c r="E3" s="6">
-        <f>Data!F3/3204*150</f>
-        <v>48.68913857677903</v>
+        <f>Data!F3/$M$2*150</f>
+        <v>48.044348629504157</v>
       </c>
       <c r="F3" s="6">
-        <f>Data!G3/3204*150</f>
-        <v>140.49625468164794</v>
+        <f>Data!G3/$M$2*150</f>
+        <v>138.63566368955961</v>
       </c>
       <c r="G3" s="6">
-        <f>Data!H3/3204*150</f>
-        <v>119.28838951310863</v>
+        <f>Data!H3/$M$2*150</f>
+        <v>117.70865414228518</v>
       </c>
       <c r="H3" s="6">
-        <f>Data!I3/3204*150</f>
-        <v>64.653558052434462</v>
+        <f>Data!I3/$M$2*150</f>
+        <v>63.797351401293504</v>
       </c>
       <c r="I3" s="6">
-        <f>Data!J3/3204*150</f>
-        <v>99.531835205992508</v>
+        <f>Data!J3/$M$2*150</f>
+        <v>98.213735756082542</v>
       </c>
       <c r="J3" s="6">
-        <f>Data!K3/3204*150</f>
-        <v>7.631086142322097</v>
+        <f>Data!K3/$M$2*150</f>
+        <v>7.5300277178934403</v>
       </c>
       <c r="K3" s="6">
-        <f>Data!L3/3204*150</f>
-        <v>12.874531835205993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <f>Data!L3/$M$2*150</f>
+        <v>12.704034493378503</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="B4" s="6">
-        <f>Data!C4/3204*150</f>
-        <v>4.9625468164794002</v>
+        <f>Data!C4/$M$2*150</f>
+        <v>4.8968278410840771</v>
       </c>
       <c r="C4" s="6">
-        <f>Data!D4/3204*150</f>
-        <v>142.8370786516854</v>
+        <f>Data!D4/$M$2*150</f>
+        <v>140.94548814290113</v>
       </c>
       <c r="D4" s="6">
-        <f>Data!E4/3204*150</f>
-        <v>127.80898876404494</v>
+        <f>Data!E4/$M$2*150</f>
+        <v>126.11641515244841</v>
       </c>
       <c r="E4" s="6">
-        <f>Data!F4/3204*150</f>
-        <v>50.936329588014978</v>
+        <f>Data!F4/$M$2*150</f>
+        <v>50.261780104712045</v>
       </c>
       <c r="F4" s="6">
-        <f>Data!G4/3204*150</f>
-        <v>138.90449438202248</v>
+        <f>Data!G4/$M$2*150</f>
+        <v>137.06498306128734</v>
       </c>
       <c r="G4" s="6">
-        <f>Data!H4/3204*150</f>
-        <v>116.29213483146067</v>
+        <f>Data!H4/$M$2*150</f>
+        <v>114.752078842008</v>
       </c>
       <c r="H4" s="6">
-        <f>Data!I4/3204*150</f>
-        <v>59.222846441947567</v>
+        <f>Data!I4/$M$2*150</f>
+        <v>58.438558669541116</v>
       </c>
       <c r="I4" s="6">
-        <f>Data!J4/3204*150</f>
-        <v>96.676029962546806</v>
+        <f>Data!J4/$M$2*150</f>
+        <v>95.395749923005852</v>
       </c>
       <c r="J4" s="6">
-        <f>Data!K4/3204*150</f>
-        <v>6.1329588014981278</v>
+        <f>Data!K4/$M$2*150</f>
+        <v>6.0517400677548503</v>
       </c>
       <c r="K4" s="6">
-        <f>Data!L4/3204*150</f>
-        <v>13.99812734082397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <f>Data!L4/$M$2*150</f>
+        <v>13.812750230982445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>0.125</v>
       </c>
       <c r="B5" s="6">
-        <f>Data!C5/3204*150</f>
-        <v>3.9794007490636703</v>
+        <f>Data!C5/$M$2*150</f>
+        <v>3.9267015706806281</v>
       </c>
       <c r="C5" s="6">
-        <f>Data!D5/3204*150</f>
-        <v>140.68352059925093</v>
+        <f>Data!D5/$M$2*150</f>
+        <v>138.82044964582693</v>
       </c>
       <c r="D5" s="6">
-        <f>Data!E5/3204*150</f>
-        <v>137.07865168539325</v>
+        <f>Data!E5/$M$2*150</f>
+        <v>135.26331998768092</v>
       </c>
       <c r="E5" s="6">
-        <f>Data!F5/3204*150</f>
-        <v>52.059925093632963</v>
+        <f>Data!F5/$M$2*150</f>
+        <v>51.370495842315982</v>
       </c>
       <c r="F5" s="6">
-        <f>Data!G5/3204*150</f>
-        <v>138.10861423220973</v>
+        <f>Data!G5/$M$2*150</f>
+        <v>136.2796427471512</v>
       </c>
       <c r="G5" s="6">
-        <f>Data!H5/3204*150</f>
-        <v>109.8314606741573</v>
+        <f>Data!H5/$M$2*150</f>
+        <v>108.37696335078533</v>
       </c>
       <c r="H5" s="6">
-        <f>Data!I5/3204*150</f>
-        <v>53.979400749063672</v>
+        <f>Data!I5/$M$2*150</f>
+        <v>53.264551894056055</v>
       </c>
       <c r="I5" s="6">
-        <f>Data!J5/3204*150</f>
-        <v>95.739700374531822</v>
+        <f>Data!J5/$M$2*150</f>
+        <v>94.471820141669241</v>
       </c>
       <c r="J5" s="6">
-        <f>Data!K5/3204*150</f>
-        <v>5.4307116104868909</v>
+        <f>Data!K5/$M$2*150</f>
+        <v>5.3587927317523869</v>
       </c>
       <c r="K5" s="6">
-        <f>Data!L5/3204*150</f>
-        <v>18.913857677902623</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <f>Data!L5/$M$2*150</f>
+        <v>18.663381582999691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>0.16666666666666699</v>
       </c>
       <c r="B6" s="6">
-        <f>Data!C6/3204*150</f>
-        <v>4.6816479400749067</v>
+        <f>Data!C6/$M$2*150</f>
+        <v>4.6196489066830919</v>
       </c>
       <c r="C6" s="6">
-        <f>Data!D6/3204*150</f>
-        <v>133.61423220973782</v>
+        <f>Data!D6/$M$2*150</f>
+        <v>131.84477979673545</v>
       </c>
       <c r="D6" s="6">
-        <f>Data!E6/3204*150</f>
-        <v>138.99812734082397</v>
+        <f>Data!E6/$M$2*150</f>
+        <v>137.157376039421</v>
       </c>
       <c r="E6" s="6">
-        <f>Data!F6/3204*150</f>
-        <v>48.455056179775283</v>
+        <f>Data!F6/$M$2*150</f>
+        <v>47.81336618417</v>
       </c>
       <c r="F6" s="6">
-        <f>Data!G6/3204*150</f>
-        <v>139.46629213483146</v>
+        <f>Data!G6/$M$2*150</f>
+        <v>137.61934093008932</v>
       </c>
       <c r="G6" s="6">
-        <f>Data!H6/3204*150</f>
-        <v>100.65543071161048</v>
+        <f>Data!H6/$M$2*150</f>
+        <v>99.322451493686486</v>
       </c>
       <c r="H6" s="6">
-        <f>Data!I6/3204*150</f>
-        <v>49.438202247191008</v>
+        <f>Data!I6/$M$2*150</f>
+        <v>48.783492454573455</v>
       </c>
       <c r="I6" s="6">
-        <f>Data!J6/3204*150</f>
-        <v>90.215355805243448</v>
+        <f>Data!J6/$M$2*150</f>
+        <v>89.020634431783179</v>
       </c>
       <c r="J6" s="6">
-        <f>Data!K6/3204*150</f>
-        <v>4.5411985018726595</v>
+        <f>Data!K6/$M$2*150</f>
+        <v>4.4810594394825989</v>
       </c>
       <c r="K6" s="6">
-        <f>Data!L6/3204*150</f>
-        <v>25.327715355805243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <f>Data!L6/$M$2*150</f>
+        <v>24.99230058515553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>0.20833333333333301</v>
       </c>
       <c r="B7" s="6">
-        <f>Data!C7/3204*150</f>
-        <v>6.5543071161048694</v>
+        <f>Data!C7/$M$2*150</f>
+        <v>6.4675084693563294</v>
       </c>
       <c r="C7" s="6">
-        <f>Data!D7/3204*150</f>
-        <v>118.21161048689139</v>
+        <f>Data!D7/$M$2*150</f>
+        <v>116.64613489374807</v>
       </c>
       <c r="D7" s="6">
-        <f>Data!E7/3204*150</f>
-        <v>138.85767790262173</v>
+        <f>Data!E7/$M$2*150</f>
+        <v>137.01878657222051</v>
       </c>
       <c r="E7" s="6">
-        <f>Data!F7/3204*150</f>
-        <v>43.445692883895127</v>
+        <f>Data!F7/$M$2*150</f>
+        <v>42.870341854019095</v>
       </c>
       <c r="F7" s="6">
-        <f>Data!G7/3204*150</f>
-        <v>133.14606741573033</v>
+        <f>Data!G7/$M$2*150</f>
+        <v>131.38281490606715</v>
       </c>
       <c r="G7" s="6">
-        <f>Data!H7/3204*150</f>
-        <v>88.764044943820224</v>
+        <f>Data!H7/$M$2*150</f>
+        <v>87.588543270711426</v>
       </c>
       <c r="H7" s="6">
-        <f>Data!I7/3204*150</f>
-        <v>45.084269662921351</v>
+        <f>Data!I7/$M$2*150</f>
+        <v>44.487218971358182</v>
       </c>
       <c r="I7" s="6">
-        <f>Data!J7/3204*150</f>
-        <v>84.925093632958806</v>
+        <f>Data!J7/$M$2*150</f>
+        <v>83.800431167231295</v>
       </c>
       <c r="J7" s="6">
-        <f>Data!K7/3204*150</f>
-        <v>3.0430711610486894</v>
+        <f>Data!K7/$M$2*150</f>
+        <v>3.0027717893440098</v>
       </c>
       <c r="K7" s="6">
-        <f>Data!L7/3204*150</f>
-        <v>27.668539325842698</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <f>Data!L7/$M$2*150</f>
+        <v>27.302125038497074</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>0.25</v>
       </c>
       <c r="B8" s="6">
-        <f>Data!C8/3204*150</f>
-        <v>10.674157303370785</v>
+        <f>Data!C8/$M$2*150</f>
+        <v>10.532799507237451</v>
       </c>
       <c r="C8" s="6">
-        <f>Data!D8/3204*150</f>
-        <v>92.041198501872671</v>
+        <f>Data!D8/$M$2*150</f>
+        <v>90.822297505389599</v>
       </c>
       <c r="D8" s="6">
-        <f>Data!E8/3204*150</f>
-        <v>138.29588014981275</v>
+        <f>Data!E8/$M$2*150</f>
+        <v>136.46442870341852</v>
       </c>
       <c r="E8" s="6">
-        <f>Data!F8/3204*150</f>
-        <v>38.857677902621724</v>
+        <f>Data!F8/$M$2*150</f>
+        <v>38.343085925469666</v>
       </c>
       <c r="F8" s="6">
-        <f>Data!G8/3204*150</f>
-        <v>121.72284644194757</v>
+        <f>Data!G8/$M$2*150</f>
+        <v>120.11087157376039</v>
       </c>
       <c r="G8" s="6">
-        <f>Data!H8/3204*150</f>
-        <v>76.49812734082397</v>
+        <f>Data!H8/$M$2*150</f>
+        <v>75.485063135201727</v>
       </c>
       <c r="H8" s="6">
-        <f>Data!I8/3204*150</f>
-        <v>39.794007490636702</v>
+        <f>Data!I8/$M$2*150</f>
+        <v>39.267015706806284</v>
       </c>
       <c r="I8" s="6">
-        <f>Data!J8/3204*150</f>
-        <v>80.898876404494374</v>
+        <f>Data!J8/$M$2*150</f>
+        <v>79.827533107483845</v>
       </c>
       <c r="J8" s="6">
-        <f>Data!K8/3204*150</f>
-        <v>3.089887640449438</v>
+        <f>Data!K8/$M$2*150</f>
+        <v>3.0489682784108409</v>
       </c>
       <c r="K8" s="6">
-        <f>Data!L8/3204*150</f>
-        <v>29.681647940074907</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <f>Data!L8/$M$2*150</f>
+        <v>29.288574068370803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>0.29166666666666702</v>
       </c>
       <c r="B9" s="6">
-        <f>Data!C9/3204*150</f>
-        <v>18.820224719101123</v>
+        <f>Data!C9/$M$2*150</f>
+        <v>18.570988604866031</v>
       </c>
       <c r="C9" s="6">
-        <f>Data!D9/3204*150</f>
-        <v>67.883895131086135</v>
+        <f>Data!D9/$M$2*150</f>
+        <v>66.98490914690484</v>
       </c>
       <c r="D9" s="6">
-        <f>Data!E9/3204*150</f>
-        <v>133.84831460674158</v>
+        <f>Data!E9/$M$2*150</f>
+        <v>132.0757622420696</v>
       </c>
       <c r="E9" s="6">
-        <f>Data!F9/3204*150</f>
-        <v>36.844569288389515</v>
+        <f>Data!F9/$M$2*150</f>
+        <v>36.356636895595933</v>
       </c>
       <c r="F9" s="6">
-        <f>Data!G9/3204*150</f>
-        <v>105.29026217228464</v>
+        <f>Data!G9/$M$2*150</f>
+        <v>103.89590391130274</v>
       </c>
       <c r="G9" s="6">
-        <f>Data!H9/3204*150</f>
-        <v>65.543071161048687</v>
+        <f>Data!H9/$M$2*150</f>
+        <v>64.675084693563292</v>
       </c>
       <c r="H9" s="6">
-        <f>Data!I9/3204*150</f>
-        <v>39.044943820224724</v>
+        <f>Data!I9/$M$2*150</f>
+        <v>38.527871881736992</v>
       </c>
       <c r="I9" s="6">
-        <f>Data!J9/3204*150</f>
-        <v>69.428838951310865</v>
+        <f>Data!J9/$M$2*150</f>
+        <v>68.509393286110253</v>
       </c>
       <c r="J9" s="6">
-        <f>Data!K9/3204*150</f>
-        <v>3.51123595505618</v>
+        <f>Data!K9/$M$2*150</f>
+        <v>3.4647366800123192</v>
       </c>
       <c r="K9" s="6">
-        <f>Data!L9/3204*150</f>
-        <v>22.144194756554306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <f>Data!L9/$M$2*150</f>
+        <v>21.850939328611027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>0.33333333333333298</v>
       </c>
       <c r="B10" s="6">
-        <f>Data!C10/3204*150</f>
-        <v>26.45131086142322</v>
+        <f>Data!C10/$M$2*150</f>
+        <v>26.10101632275947</v>
       </c>
       <c r="C10" s="6">
-        <f>Data!D10/3204*150</f>
-        <v>64.559925093632955</v>
+        <f>Data!D10/$M$2*150</f>
+        <v>63.704958423159837</v>
       </c>
       <c r="D10" s="6">
-        <f>Data!E10/3204*150</f>
-        <v>127.24719101123596</v>
+        <f>Data!E10/$M$2*150</f>
+        <v>125.56205728364645</v>
       </c>
       <c r="E10" s="6">
-        <f>Data!F10/3204*150</f>
-        <v>31.320224719101127</v>
+        <f>Data!F10/$M$2*150</f>
+        <v>30.905451185709886</v>
       </c>
       <c r="F10" s="6">
-        <f>Data!G10/3204*150</f>
-        <v>88.670411985018731</v>
+        <f>Data!G10/$M$2*150</f>
+        <v>87.496150292577767</v>
       </c>
       <c r="G10" s="6">
-        <f>Data!H10/3204*150</f>
-        <v>53.230337078651679</v>
+        <f>Data!H10/$M$2*150</f>
+        <v>52.525408068986756</v>
       </c>
       <c r="H10" s="6">
-        <f>Data!I10/3204*150</f>
-        <v>36.329588014981276</v>
+        <f>Data!I10/$M$2*150</f>
+        <v>35.848475515860791</v>
       </c>
       <c r="I10" s="6">
-        <f>Data!J10/3204*150</f>
-        <v>62.640449438202253</v>
+        <f>Data!J10/$M$2*150</f>
+        <v>61.810902371419772</v>
       </c>
       <c r="J10" s="6">
-        <f>Data!K10/3204*150</f>
-        <v>3.838951310861423</v>
+        <f>Data!K10/$M$2*150</f>
+        <v>3.7881121034801355</v>
       </c>
       <c r="K10" s="6">
-        <f>Data!L10/3204*150</f>
-        <v>14.04494382022472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <f>Data!L10/$M$2*150</f>
+        <v>13.858946720049277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>0.375</v>
       </c>
       <c r="B11" s="6">
-        <f>Data!C11/3204*150</f>
-        <v>26.310861423220974</v>
+        <f>Data!C11/$M$2*150</f>
+        <v>25.962426855558977</v>
       </c>
       <c r="C11" s="6">
-        <f>Data!D11/3204*150</f>
-        <v>69.335205992509373</v>
+        <f>Data!D11/$M$2*150</f>
+        <v>68.417000307976593</v>
       </c>
       <c r="D11" s="6">
-        <f>Data!E11/3204*150</f>
-        <v>121.16104868913857</v>
+        <f>Data!E11/$M$2*150</f>
+        <v>119.55651370495842</v>
       </c>
       <c r="E11" s="6">
-        <f>Data!F11/3204*150</f>
-        <v>29.166666666666668</v>
+        <f>Data!F11/$M$2*150</f>
+        <v>28.780412688635664</v>
       </c>
       <c r="F11" s="6">
-        <f>Data!G11/3204*150</f>
-        <v>80.664794007490642</v>
+        <f>Data!G11/$M$2*150</f>
+        <v>79.596550662149681</v>
       </c>
       <c r="G11" s="6">
-        <f>Data!H11/3204*150</f>
-        <v>57.677902621722843</v>
+        <f>Data!H11/$M$2*150</f>
+        <v>56.914074530335697</v>
       </c>
       <c r="H11" s="6">
-        <f>Data!I11/3204*150</f>
-        <v>33.941947565543067</v>
+        <f>Data!I11/$M$2*150</f>
+        <v>33.49245457345242</v>
       </c>
       <c r="I11" s="6">
-        <f>Data!J11/3204*150</f>
-        <v>57.303370786516851</v>
+        <f>Data!J11/$M$2*150</f>
+        <v>56.544502617801051</v>
       </c>
       <c r="J11" s="6">
-        <f>Data!K11/3204*150</f>
-        <v>3.792134831460674</v>
+        <f>Data!K11/$M$2*150</f>
+        <v>3.7419156144133043</v>
       </c>
       <c r="K11" s="6">
-        <f>Data!L11/3204*150</f>
-        <v>20.177902621722847</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <f>Data!L11/$M$2*150</f>
+        <v>19.910686787804128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>0.41666666666666702</v>
       </c>
       <c r="B12" s="6">
-        <f>Data!C12/3204*150</f>
-        <v>18.960674157303373</v>
+        <f>Data!C12/$M$2*150</f>
+        <v>18.709578072066524</v>
       </c>
       <c r="C12" s="6">
-        <f>Data!D12/3204*150</f>
-        <v>57.303370786516851</v>
+        <f>Data!D12/$M$2*150</f>
+        <v>56.544502617801051</v>
       </c>
       <c r="D12" s="6">
-        <f>Data!E12/3204*150</f>
-        <v>116.76029962546816</v>
+        <f>Data!E12/$M$2*150</f>
+        <v>115.21404373267633</v>
       </c>
       <c r="E12" s="6">
-        <f>Data!F12/3204*150</f>
-        <v>32.443820224719104</v>
+        <f>Data!F12/$M$2*150</f>
+        <v>32.01416692331383</v>
       </c>
       <c r="F12" s="6">
-        <f>Data!G12/3204*150</f>
-        <v>77.762172284644194</v>
+        <f>Data!G12/$M$2*150</f>
+        <v>76.732368340006147</v>
       </c>
       <c r="G12" s="6">
-        <f>Data!H12/3204*150</f>
-        <v>65.074906367041194</v>
+        <f>Data!H12/$M$2*150</f>
+        <v>64.21311980289498</v>
       </c>
       <c r="H12" s="6">
-        <f>Data!I12/3204*150</f>
-        <v>28.558052434456929</v>
+        <f>Data!I12/$M$2*150</f>
+        <v>28.179858330766862</v>
       </c>
       <c r="I12" s="6">
-        <f>Data!J12/3204*150</f>
-        <v>57.865168539325843</v>
+        <f>Data!J12/$M$2*150</f>
+        <v>57.098860486603016</v>
       </c>
       <c r="J12" s="6">
-        <f>Data!K12/3204*150</f>
-        <v>2.9026217228464417</v>
+        <f>Data!K12/$M$2*150</f>
+        <v>2.8641823221435172</v>
       </c>
       <c r="K12" s="6">
-        <f>Data!L12/3204*150</f>
-        <v>32.397003745318351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <f>Data!L12/$M$2*150</f>
+        <v>31.967970434246997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>0.45833333333333298</v>
       </c>
       <c r="B13" s="6">
-        <f>Data!C13/3204*150</f>
-        <v>16.338951310861425</v>
+        <f>Data!C13/$M$2*150</f>
+        <v>16.122574684323993</v>
       </c>
       <c r="C13" s="6">
-        <f>Data!D13/3204*150</f>
-        <v>52.247191011235955</v>
+        <f>Data!D13/$M$2*150</f>
+        <v>51.555281798583309</v>
       </c>
       <c r="D13" s="6">
-        <f>Data!E13/3204*150</f>
-        <v>116.10486891385767</v>
+        <f>Data!E13/$M$2*150</f>
+        <v>114.56729288574068</v>
       </c>
       <c r="E13" s="6">
-        <f>Data!F13/3204*150</f>
-        <v>39.794007490636702</v>
+        <f>Data!F13/$M$2*150</f>
+        <v>39.267015706806284</v>
       </c>
       <c r="F13" s="6">
-        <f>Data!G13/3204*150</f>
-        <v>79.400749063670403</v>
+        <f>Data!G13/$M$2*150</f>
+        <v>78.349245457345233</v>
       </c>
       <c r="G13" s="6">
-        <f>Data!H13/3204*150</f>
-        <v>67.930711610486895</v>
+        <f>Data!H13/$M$2*150</f>
+        <v>67.03110563597167</v>
       </c>
       <c r="H13" s="6">
-        <f>Data!I13/3204*150</f>
-        <v>21.301498127340825</v>
+        <f>Data!I13/$M$2*150</f>
+        <v>21.019402525408069</v>
       </c>
       <c r="I13" s="6">
-        <f>Data!J13/3204*150</f>
-        <v>56.132958801498134</v>
+        <f>Data!J13/$M$2*150</f>
+        <v>55.38959039113027</v>
       </c>
       <c r="J13" s="6">
-        <f>Data!K13/3204*150</f>
-        <v>4.0730337078651688</v>
+        <f>Data!K13/$M$2*150</f>
+        <v>4.01909454881429</v>
       </c>
       <c r="K13" s="6">
-        <f>Data!L13/3204*150</f>
-        <v>44.007490636704119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <f>Data!L13/$M$2*150</f>
+        <v>43.424699722821067</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>0.5</v>
       </c>
       <c r="B14" s="6">
-        <f>Data!C14/3204*150</f>
-        <v>18.071161048689138</v>
+        <f>Data!C14/$M$2*150</f>
+        <v>17.831844779796736</v>
       </c>
       <c r="C14" s="6">
-        <f>Data!D14/3204*150</f>
-        <v>48.408239700374537</v>
+        <f>Data!D14/$M$2*150</f>
+        <v>47.767169695103178</v>
       </c>
       <c r="D14" s="6">
-        <f>Data!E14/3204*150</f>
-        <v>116.43258426966291</v>
+        <f>Data!E14/$M$2*150</f>
+        <v>114.89066830920849</v>
       </c>
       <c r="E14" s="6">
-        <f>Data!F14/3204*150</f>
-        <v>41.526217228464418</v>
+        <f>Data!F14/$M$2*150</f>
+        <v>40.976285802279023</v>
       </c>
       <c r="F14" s="6">
-        <f>Data!G14/3204*150</f>
-        <v>89.606741573033716</v>
+        <f>Data!G14/$M$2*150</f>
+        <v>88.420080073914392</v>
       </c>
       <c r="G14" s="6">
-        <f>Data!H14/3204*150</f>
-        <v>72.565543071161045</v>
+        <f>Data!H14/$M$2*150</f>
+        <v>71.604558053587922</v>
       </c>
       <c r="H14" s="6">
-        <f>Data!I14/3204*150</f>
-        <v>19.054307116104869</v>
+        <f>Data!I14/$M$2*150</f>
+        <v>18.801971050200184</v>
       </c>
       <c r="I14" s="6">
-        <f>Data!J14/3204*150</f>
-        <v>54.775280898876403</v>
+        <f>Data!J14/$M$2*150</f>
+        <v>54.049892208192176</v>
       </c>
       <c r="J14" s="6">
-        <f>Data!K14/3204*150</f>
-        <v>6.0393258426966296</v>
+        <f>Data!K14/$M$2*150</f>
+        <v>5.9593470896211889</v>
       </c>
       <c r="K14" s="6">
-        <f>Data!L14/3204*150</f>
-        <v>51.544943820224717</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <f>Data!L14/$M$2*150</f>
+        <v>50.862334462580847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
       <c r="B15" s="6">
-        <f>Data!C15/3204*150</f>
-        <v>18.679775280898877</v>
+        <f>Data!C15/$M$2*150</f>
+        <v>18.432399137665538</v>
       </c>
       <c r="C15" s="6">
-        <f>Data!D15/3204*150</f>
-        <v>51.49812734082397</v>
+        <f>Data!D15/$M$2*150</f>
+        <v>50.81613797351401</v>
       </c>
       <c r="D15" s="6">
-        <f>Data!E15/3204*150</f>
-        <v>118.58614232209737</v>
+        <f>Data!E15/$M$2*150</f>
+        <v>117.01570680628272</v>
       </c>
       <c r="E15" s="6">
-        <f>Data!F15/3204*150</f>
-        <v>39.232209737827709</v>
+        <f>Data!F15/$M$2*150</f>
+        <v>38.712657838004311</v>
       </c>
       <c r="F15" s="6">
-        <f>Data!G15/3204*150</f>
-        <v>105.80524344569288</v>
+        <f>Data!G15/$M$2*150</f>
+        <v>104.40406529103788</v>
       </c>
       <c r="G15" s="6">
-        <f>Data!H15/3204*150</f>
-        <v>72.097378277153553</v>
+        <f>Data!H15/$M$2*150</f>
+        <v>71.142593162919624</v>
       </c>
       <c r="H15" s="6">
-        <f>Data!I15/3204*150</f>
-        <v>19.054307116104869</v>
+        <f>Data!I15/$M$2*150</f>
+        <v>18.801971050200184</v>
       </c>
       <c r="I15" s="6">
-        <f>Data!J15/3204*150</f>
-        <v>55.477528089887642</v>
+        <f>Data!J15/$M$2*150</f>
+        <v>54.742839544194645</v>
       </c>
       <c r="J15" s="6">
-        <f>Data!K15/3204*150</f>
-        <v>7.9588014981273405</v>
+        <f>Data!K15/$M$2*150</f>
+        <v>7.8534031413612562</v>
       </c>
       <c r="K15" s="6">
-        <f>Data!L15/3204*150</f>
-        <v>52.715355805243448</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <f>Data!L15/$M$2*150</f>
+        <v>52.017246689251614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>0.58333333333333304</v>
       </c>
       <c r="B16" s="6">
-        <f>Data!C16/3204*150</f>
-        <v>19.194756554307116</v>
+        <f>Data!C16/$M$2*150</f>
+        <v>18.940560517400677</v>
       </c>
       <c r="C16" s="6">
-        <f>Data!D16/3204*150</f>
-        <v>66.198501872659179</v>
+        <f>Data!D16/$M$2*150</f>
+        <v>65.321835540498924</v>
       </c>
       <c r="D16" s="6">
-        <f>Data!E16/3204*150</f>
-        <v>118.96067415730337</v>
+        <f>Data!E16/$M$2*150</f>
+        <v>117.38527871881737</v>
       </c>
       <c r="E16" s="6">
-        <f>Data!F16/3204*150</f>
-        <v>38.99812734082397</v>
+        <f>Data!F16/$M$2*150</f>
+        <v>38.481675392670155</v>
       </c>
       <c r="F16" s="6">
-        <f>Data!G16/3204*150</f>
-        <v>114.23220973782772</v>
+        <f>Data!G16/$M$2*150</f>
+        <v>112.71943332306745</v>
       </c>
       <c r="G16" s="6">
-        <f>Data!H16/3204*150</f>
-        <v>71.722846441947567</v>
+        <f>Data!H16/$M$2*150</f>
+        <v>70.773021250384971</v>
       </c>
       <c r="H16" s="6">
-        <f>Data!I16/3204*150</f>
-        <v>19.897003745318351</v>
+        <f>Data!I16/$M$2*150</f>
+        <v>19.633507853403142</v>
       </c>
       <c r="I16" s="6">
-        <f>Data!J16/3204*150</f>
-        <v>64.653558052434462</v>
+        <f>Data!J16/$M$2*150</f>
+        <v>63.797351401293504</v>
       </c>
       <c r="J16" s="6">
-        <f>Data!K16/3204*150</f>
-        <v>10.580524344569289</v>
+        <f>Data!K16/$M$2*150</f>
+        <v>10.440406529103788</v>
       </c>
       <c r="K16" s="6">
-        <f>Data!L16/3204*150</f>
-        <v>53.651685393258425</v>
+        <f>Data!L16/$M$2*150</f>
+        <v>52.941176470588239</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -2146,44 +2185,44 @@
         <v>0.625</v>
       </c>
       <c r="B17" s="6">
-        <f>Data!C17/3204*150</f>
-        <v>19.335205992509366</v>
+        <f>Data!C17/$M$2*150</f>
+        <v>19.07914998460117</v>
       </c>
       <c r="C17" s="6">
-        <f>Data!D17/3204*150</f>
-        <v>74.250936329588015</v>
+        <f>Data!D17/$M$2*150</f>
+        <v>73.267631659993839</v>
       </c>
       <c r="D17" s="6">
-        <f>Data!E17/3204*150</f>
-        <v>121.91011235955057</v>
+        <f>Data!E17/$M$2*150</f>
+        <v>120.29565753002771</v>
       </c>
       <c r="E17" s="6">
-        <f>Data!F17/3204*150</f>
-        <v>47.050561797752806</v>
+        <f>Data!F17/$M$2*150</f>
+        <v>46.427471512165077</v>
       </c>
       <c r="F17" s="6">
-        <f>Data!G17/3204*150</f>
-        <v>118.44569288389513</v>
+        <f>Data!G17/$M$2*150</f>
+        <v>116.87711733908223</v>
       </c>
       <c r="G17" s="6">
-        <f>Data!H17/3204*150</f>
-        <v>69.569288389513119</v>
+        <f>Data!H17/$M$2*150</f>
+        <v>68.647982753310757</v>
       </c>
       <c r="H17" s="6">
-        <f>Data!I17/3204*150</f>
-        <v>21.722846441947564</v>
+        <f>Data!I17/$M$2*150</f>
+        <v>21.435170927009548</v>
       </c>
       <c r="I17" s="6">
-        <f>Data!J17/3204*150</f>
-        <v>70.646067415730329</v>
+        <f>Data!J17/$M$2*150</f>
+        <v>69.710502001847857</v>
       </c>
       <c r="J17" s="6">
-        <f>Data!K17/3204*150</f>
-        <v>15.449438202247192</v>
+        <f>Data!K17/$M$2*150</f>
+        <v>15.244841392054203</v>
       </c>
       <c r="K17" s="6">
-        <f>Data!L17/3204*150</f>
-        <v>52.247191011235955</v>
+        <f>Data!L17/$M$2*150</f>
+        <v>51.555281798583309</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -2191,44 +2230,44 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="B18" s="6">
-        <f>Data!C18/3204*150</f>
-        <v>21.769662921348313</v>
+        <f>Data!C18/$M$2*150</f>
+        <v>21.481367416076377</v>
       </c>
       <c r="C18" s="6">
-        <f>Data!D18/3204*150</f>
-        <v>82.022471910112358</v>
+        <f>Data!D18/$M$2*150</f>
+        <v>80.936248845087775</v>
       </c>
       <c r="D18" s="6">
-        <f>Data!E18/3204*150</f>
-        <v>121.06741573033707</v>
+        <f>Data!E18/$M$2*150</f>
+        <v>119.46412072682476</v>
       </c>
       <c r="E18" s="6">
-        <f>Data!F18/3204*150</f>
-        <v>51.68539325842697</v>
+        <f>Data!F18/$M$2*150</f>
+        <v>51.000923929781337</v>
       </c>
       <c r="F18" s="6">
-        <f>Data!G18/3204*150</f>
-        <v>116.52621722846442</v>
+        <f>Data!G18/$M$2*150</f>
+        <v>114.98306128734217</v>
       </c>
       <c r="G18" s="6">
-        <f>Data!H18/3204*150</f>
-        <v>59.925093632958799</v>
+        <f>Data!H18/$M$2*150</f>
+        <v>59.131506005543578</v>
       </c>
       <c r="H18" s="6">
-        <f>Data!I18/3204*150</f>
-        <v>24.063670411985019</v>
+        <f>Data!I18/$M$2*150</f>
+        <v>23.744995380351096</v>
       </c>
       <c r="I18" s="6">
-        <f>Data!J18/3204*150</f>
-        <v>78.698501872659179</v>
+        <f>Data!J18/$M$2*150</f>
+        <v>77.656298121342772</v>
       </c>
       <c r="J18" s="6">
-        <f>Data!K18/3204*150</f>
-        <v>19.428838951310862</v>
+        <f>Data!K18/$M$2*150</f>
+        <v>19.171542962734833</v>
       </c>
       <c r="K18" s="6">
-        <f>Data!L18/3204*150</f>
-        <v>51.638576779026216</v>
+        <f>Data!L18/$M$2*150</f>
+        <v>50.954727440714507</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -2236,44 +2275,44 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="B19" s="6">
-        <f>Data!C19/3204*150</f>
-        <v>32.490636704119851</v>
+        <f>Data!C19/$M$2*150</f>
+        <v>32.06036341238066</v>
       </c>
       <c r="C19" s="6">
-        <f>Data!D19/3204*150</f>
-        <v>89.091760299625463</v>
+        <f>Data!D19/$M$2*150</f>
+        <v>87.911918694179249</v>
       </c>
       <c r="D19" s="6">
-        <f>Data!E19/3204*150</f>
-        <v>121.06741573033707</v>
+        <f>Data!E19/$M$2*150</f>
+        <v>119.46412072682476</v>
       </c>
       <c r="E19" s="6">
-        <f>Data!F19/3204*150</f>
-        <v>49.438202247191008</v>
+        <f>Data!F19/$M$2*150</f>
+        <v>48.783492454573455</v>
       </c>
       <c r="F19" s="6">
-        <f>Data!G19/3204*150</f>
-        <v>105.94569288389513</v>
+        <f>Data!G19/$M$2*150</f>
+        <v>104.54265475823837</v>
       </c>
       <c r="G19" s="6">
-        <f>Data!H19/3204*150</f>
-        <v>54.119850187265918</v>
+        <f>Data!H19/$M$2*150</f>
+        <v>53.403141361256544</v>
       </c>
       <c r="H19" s="6">
-        <f>Data!I19/3204*150</f>
-        <v>36.09550561797753</v>
+        <f>Data!I19/$M$2*150</f>
+        <v>35.617493070526642</v>
       </c>
       <c r="I19" s="6">
-        <f>Data!J19/3204*150</f>
-        <v>84.035580524344567</v>
+        <f>Data!J19/$M$2*150</f>
+        <v>82.922697874961514</v>
       </c>
       <c r="J19" s="6">
-        <f>Data!K19/3204*150</f>
-        <v>24.016853932584269</v>
+        <f>Data!K19/$M$2*150</f>
+        <v>23.698798891284262</v>
       </c>
       <c r="K19" s="6">
-        <f>Data!L19/3204*150</f>
-        <v>51.825842696629216</v>
+        <f>Data!L19/$M$2*150</f>
+        <v>51.139513396981826</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -2281,44 +2320,44 @@
         <v>0.75</v>
       </c>
       <c r="B20" s="6">
-        <f>Data!C20/3204*150</f>
-        <v>53.885767790262172</v>
+        <f>Data!C20/$M$2*150</f>
+        <v>53.172158915922388</v>
       </c>
       <c r="C20" s="6">
-        <f>Data!D20/3204*150</f>
-        <v>96.067415730337075</v>
+        <f>Data!D20/$M$2*150</f>
+        <v>94.79519556513705</v>
       </c>
       <c r="D20" s="6">
-        <f>Data!E20/3204*150</f>
-        <v>121.34831460674157</v>
+        <f>Data!E20/$M$2*150</f>
+        <v>119.74129966122574</v>
       </c>
       <c r="E20" s="6">
-        <f>Data!F20/3204*150</f>
-        <v>46.863295880149813</v>
+        <f>Data!F20/$M$2*150</f>
+        <v>46.242685555897751</v>
       </c>
       <c r="F20" s="6">
-        <f>Data!G20/3204*150</f>
-        <v>92.556179775280896</v>
+        <f>Data!G20/$M$2*150</f>
+        <v>91.330458885124727</v>
       </c>
       <c r="G20" s="6">
-        <f>Data!H20/3204*150</f>
-        <v>46.020599250936336</v>
+        <f>Data!H20/$M$2*150</f>
+        <v>45.4111487526948</v>
       </c>
       <c r="H20" s="6">
-        <f>Data!I20/3204*150</f>
-        <v>53.183520599250933</v>
+        <f>Data!I20/$M$2*150</f>
+        <v>52.479211579919927</v>
       </c>
       <c r="I20" s="6">
-        <f>Data!J20/3204*150</f>
-        <v>88.529962546816492</v>
+        <f>Data!J20/$M$2*150</f>
+        <v>87.357560825377277</v>
       </c>
       <c r="J20" s="6">
-        <f>Data!K20/3204*150</f>
-        <v>35.018726591760299</v>
+        <f>Data!K20/$M$2*150</f>
+        <v>34.554973821989527</v>
       </c>
       <c r="K20" s="6">
-        <f>Data!L20/3204*150</f>
-        <v>50.374531835205993</v>
+        <f>Data!L20/$M$2*150</f>
+        <v>49.707422235910073</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -2326,44 +2365,44 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="B21" s="6">
-        <f>Data!C21/3204*150</f>
-        <v>73.68913857677903</v>
+        <f>Data!C21/$M$2*150</f>
+        <v>72.713273791191867</v>
       </c>
       <c r="C21" s="6">
-        <f>Data!D21/3204*150</f>
-        <v>100.70224719101124</v>
+        <f>Data!D21/$M$2*150</f>
+        <v>99.368647982753302</v>
       </c>
       <c r="D21" s="6">
-        <f>Data!E21/3204*150</f>
-        <v>121.02059925093633</v>
+        <f>Data!E21/$M$2*150</f>
+        <v>119.41792423775793</v>
       </c>
       <c r="E21" s="6">
-        <f>Data!F21/3204*150</f>
-        <v>44.382022471910112</v>
+        <f>Data!F21/$M$2*150</f>
+        <v>43.794271635355713</v>
       </c>
       <c r="F21" s="6">
-        <f>Data!G21/3204*150</f>
-        <v>86.00187265917603</v>
+        <f>Data!G21/$M$2*150</f>
+        <v>84.862950415768395</v>
       </c>
       <c r="G21" s="6">
-        <f>Data!H21/3204*150</f>
-        <v>39.747191011235955</v>
+        <f>Data!H21/$M$2*150</f>
+        <v>39.220819217739454</v>
       </c>
       <c r="H21" s="6">
-        <f>Data!I21/3204*150</f>
-        <v>73.923220973782776</v>
+        <f>Data!I21/$M$2*150</f>
+        <v>72.94425623652603</v>
       </c>
       <c r="I21" s="6">
-        <f>Data!J21/3204*150</f>
-        <v>85.018726591760313</v>
+        <f>Data!J21/$M$2*150</f>
+        <v>83.892824145364955</v>
       </c>
       <c r="J21" s="6">
-        <f>Data!K21/3204*150</f>
-        <v>53.558052434456926</v>
+        <f>Data!K21/$M$2*150</f>
+        <v>52.848783492454579</v>
       </c>
       <c r="K21" s="6">
-        <f>Data!L21/3204*150</f>
-        <v>48.970037453183522</v>
+        <f>Data!L21/$M$2*150</f>
+        <v>48.321527563905143</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -2371,44 +2410,44 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="B22" s="6">
-        <f>Data!C22/3204*150</f>
-        <v>77.294007490636702</v>
+        <f>Data!C22/$M$2*150</f>
+        <v>76.270403449337849</v>
       </c>
       <c r="C22" s="6">
-        <f>Data!D22/3204*150</f>
-        <v>113.48314606741573</v>
+        <f>Data!D22/$M$2*150</f>
+        <v>111.98028949799814</v>
       </c>
       <c r="D22" s="6">
-        <f>Data!E22/3204*150</f>
-        <v>122.65917602996255</v>
+        <f>Data!E22/$M$2*150</f>
+        <v>121.03480135509702</v>
       </c>
       <c r="E22" s="6">
-        <f>Data!F22/3204*150</f>
-        <v>40.964419475655433</v>
+        <f>Data!F22/$M$2*150</f>
+        <v>40.421927933477058</v>
       </c>
       <c r="F22" s="6">
-        <f>Data!G22/3204*150</f>
-        <v>89.934456928838941</v>
+        <f>Data!G22/$M$2*150</f>
+        <v>88.7434554973822</v>
       </c>
       <c r="G22" s="6">
-        <f>Data!H22/3204*150</f>
-        <v>36.09550561797753</v>
+        <f>Data!H22/$M$2*150</f>
+        <v>35.617493070526642</v>
       </c>
       <c r="H22" s="6">
-        <f>Data!I22/3204*150</f>
-        <v>90.121722846441941</v>
+        <f>Data!I22/$M$2*150</f>
+        <v>88.92824145364952</v>
       </c>
       <c r="I22" s="6">
-        <f>Data!J22/3204*150</f>
-        <v>88.202247191011239</v>
+        <f>Data!J22/$M$2*150</f>
+        <v>87.034185401909454</v>
       </c>
       <c r="J22" s="6">
-        <f>Data!K22/3204*150</f>
-        <v>73.220973782771537</v>
+        <f>Data!K22/$M$2*150</f>
+        <v>72.251308900523568</v>
       </c>
       <c r="K22" s="6">
-        <f>Data!L22/3204*150</f>
-        <v>50.936329588014978</v>
+        <f>Data!L22/$M$2*150</f>
+        <v>50.261780104712045</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -2416,44 +2455,44 @@
         <v>0.875</v>
       </c>
       <c r="B23" s="6">
-        <f>Data!C23/3204*150</f>
-        <v>77.247191011235955</v>
+        <f>Data!C23/$M$2*150</f>
+        <v>76.224206960271019</v>
       </c>
       <c r="C23" s="6">
-        <f>Data!D23/3204*150</f>
-        <v>124.95318352059925</v>
+        <f>Data!D23/$M$2*150</f>
+        <v>123.29842931937173</v>
       </c>
       <c r="D23" s="6">
-        <f>Data!E23/3204*150</f>
-        <v>121.95692883895131</v>
+        <f>Data!E23/$M$2*150</f>
+        <v>120.34185401909455</v>
       </c>
       <c r="E23" s="6">
-        <f>Data!F23/3204*150</f>
-        <v>39.325842696629209</v>
+        <f>Data!F23/$M$2*150</f>
+        <v>38.805050816137971</v>
       </c>
       <c r="F23" s="6">
-        <f>Data!G23/3204*150</f>
-        <v>101.96629213483146</v>
+        <f>Data!G23/$M$2*150</f>
+        <v>100.61595318755775</v>
       </c>
       <c r="G23" s="6">
-        <f>Data!H23/3204*150</f>
-        <v>35.580524344569291</v>
+        <f>Data!H23/$M$2*150</f>
+        <v>35.1093316907915</v>
       </c>
       <c r="H23" s="6">
-        <f>Data!I23/3204*150</f>
-        <v>96.254681647940075</v>
+        <f>Data!I23/$M$2*150</f>
+        <v>94.979981521404383</v>
       </c>
       <c r="I23" s="6">
-        <f>Data!J23/3204*150</f>
-        <v>86.750936329588015</v>
+        <f>Data!J23/$M$2*150</f>
+        <v>85.602094240837701</v>
       </c>
       <c r="J23" s="6">
-        <f>Data!K23/3204*150</f>
-        <v>85.533707865168537</v>
+        <f>Data!K23/$M$2*150</f>
+        <v>84.400985525100097</v>
       </c>
       <c r="K23" s="6">
-        <f>Data!L23/3204*150</f>
-        <v>59.737827715355799</v>
+        <f>Data!L23/$M$2*150</f>
+        <v>58.946720049276252</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -2461,44 +2500,44 @@
         <v>0.91666666666666696</v>
       </c>
       <c r="B24" s="6">
-        <f>Data!C24/3204*150</f>
-        <v>76.638576779026209</v>
+        <f>Data!C24/$M$2*150</f>
+        <v>75.623652602402217</v>
       </c>
       <c r="C24" s="6">
-        <f>Data!D24/3204*150</f>
-        <v>127.15355805243445</v>
+        <f>Data!D24/$M$2*150</f>
+        <v>125.46966430551278</v>
       </c>
       <c r="D24" s="6">
-        <f>Data!E24/3204*150</f>
-        <v>117.50936329588015</v>
+        <f>Data!E24/$M$2*150</f>
+        <v>115.95318755774561</v>
       </c>
       <c r="E24" s="6">
-        <f>Data!F24/3204*150</f>
-        <v>34.035580524344567</v>
+        <f>Data!F24/$M$2*150</f>
+        <v>33.58484755158608</v>
       </c>
       <c r="F24" s="6">
-        <f>Data!G24/3204*150</f>
-        <v>108.66104868913858</v>
+        <f>Data!G24/$M$2*150</f>
+        <v>107.22205112411457</v>
       </c>
       <c r="G24" s="6">
-        <f>Data!H24/3204*150</f>
-        <v>39.559925093632955</v>
+        <f>Data!H24/$M$2*150</f>
+        <v>39.036033261472127</v>
       </c>
       <c r="H24" s="6">
-        <f>Data!I24/3204*150</f>
-        <v>96.956928838951313</v>
+        <f>Data!I24/$M$2*150</f>
+        <v>95.672928857406845</v>
       </c>
       <c r="I24" s="6">
-        <f>Data!J24/3204*150</f>
-        <v>85.767790262172284</v>
+        <f>Data!J24/$M$2*150</f>
+        <v>84.631967970434246</v>
       </c>
       <c r="J24" s="6">
-        <f>Data!K24/3204*150</f>
-        <v>93.258426966292134</v>
+        <f>Data!K24/$M$2*150</f>
+        <v>92.023406221127203</v>
       </c>
       <c r="K24" s="6">
-        <f>Data!L24/3204*150</f>
-        <v>74.672284644194761</v>
+        <f>Data!L24/$M$2*150</f>
+        <v>73.683400061595322</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -2506,47 +2545,50 @@
         <v>0.95833333333333304</v>
       </c>
       <c r="B25" s="6">
-        <f>Data!C25/3204*150</f>
-        <v>74.250936329588015</v>
+        <f>Data!C25/$M$2*150</f>
+        <v>73.267631659993839</v>
       </c>
       <c r="C25" s="6">
-        <f>Data!D25/3204*150</f>
-        <v>126.77902621722846</v>
+        <f>Data!D25/$M$2*150</f>
+        <v>125.10009239297813</v>
       </c>
       <c r="D25" s="6">
-        <f>Data!E25/3204*150</f>
-        <v>114.32584269662921</v>
+        <f>Data!E25/$M$2*150</f>
+        <v>112.81182630120111</v>
       </c>
       <c r="E25" s="6">
-        <f>Data!F25/3204*150</f>
-        <v>33.754681647940075</v>
+        <f>Data!F25/$M$2*150</f>
+        <v>33.307668617185094</v>
       </c>
       <c r="F25" s="6">
-        <f>Data!G25/3204*150</f>
-        <v>105.38389513108613</v>
+        <f>Data!G25/$M$2*150</f>
+        <v>103.98829688943641</v>
       </c>
       <c r="G25" s="6">
-        <f>Data!H25/3204*150</f>
-        <v>51.966292134831463</v>
+        <f>Data!H25/$M$2*150</f>
+        <v>51.278102864182323</v>
       </c>
       <c r="H25" s="6">
-        <f>Data!I25/3204*150</f>
-        <v>94.522471910112372</v>
+        <f>Data!I25/$M$2*150</f>
+        <v>93.270711425931637</v>
       </c>
       <c r="I25" s="6">
-        <f>Data!J25/3204*150</f>
-        <v>80.992509363295881</v>
+        <f>Data!J25/$M$2*150</f>
+        <v>79.91992608561749</v>
       </c>
       <c r="J25" s="6">
-        <f>Data!K25/3204*150</f>
-        <v>97.144194756554299</v>
+        <f>Data!K25/$M$2*150</f>
+        <v>95.857714813674164</v>
       </c>
       <c r="K25" s="6">
-        <f>Data!L25/3204*150</f>
-        <v>81.320224719101134</v>
+        <f>Data!L25/$M$2*150</f>
+        <v>80.243301509085313</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N3" r:id="rId1" location=":~:text=By%20the%20end%20of%202022,wind%20power%20is%20domestically%20owned." display="https://tuulivoimayhdistys.fi/en/ajankohtaista/press-releases/finnish-wind-power-year-2022-wind-power-capacity-increased-by-75-and-brought-more-than-2-9-billion-investments-to-finland#:~:text=By%20the%20end%20of%202022,wind%20power%20is%20domestically%20owned." xr:uid="{017163C2-99DA-4567-90B4-D54D0916885A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/WindProduction.xlsx
+++ b/Data/WindProduction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s213518_dtu_dk/Documents/23 Spring/46755 Renewables in Electricity Markets/Assignment 2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="11_2A96071C709FA31C1226FFF8A738A5939BC0FE6A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{110B0C34-7F7D-4622-81B5-448D00EED550}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="11_2A96071C709FA31C1226FFF8A738A5939BC0FE6A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78C89216-8E2F-4CE4-99EB-7D4EAAE7FCC8}"/>
   <bookViews>
-    <workbookView xWindow="30510" yWindow="2580" windowWidth="21600" windowHeight="11175" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1444,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC6EAA4-9164-47C2-A2DF-99C653857F1A}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
